--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.HydroBogota\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68E9ADD-9D55-499B-B168-2FB5962929BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851F6D69-9E36-46F6-BCDF-9C1B133959E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" firstSheet="1" activeTab="5" xr2:uid="{3E1898FA-83B9-434A-8B97-00E46467114B}"/>
   </bookViews>
@@ -1186,7 +1186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1413,27 +1413,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1446,14 +1425,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1493,6 +1466,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -16907,7 +16901,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="106" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -16924,7 +16918,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="89"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
@@ -16939,7 +16933,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="89"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="14" t="s">
         <v>16</v>
       </c>
@@ -16954,7 +16948,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="89"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="14" t="s">
         <v>96</v>
       </c>
@@ -16971,7 +16965,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="89"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="14" t="s">
         <v>98</v>
       </c>
@@ -16989,7 +16983,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="89"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="14" t="s">
         <v>3</v>
       </c>
@@ -17006,7 +17000,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="90"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="19" t="s">
         <v>15</v>
       </c>
@@ -36457,7 +36451,7 @@
     <col min="3" max="3" width="14" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="81" style="25" customWidth="1"/>
     <col min="5" max="5" width="2.59765625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="69.19921875" style="101" customWidth="1"/>
+    <col min="6" max="6" width="69.19921875" style="9" customWidth="1"/>
     <col min="7" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
@@ -36465,7 +36459,7 @@
       <c r="B2" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="25" t="s">
         <v>113</v>
       </c>
     </row>
@@ -36479,22 +36473,22 @@
       <c r="D3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="99" t="str">
+      <c r="F3" s="25" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
         <v>| NLCD_Value | n_ValueRange | Description |</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="100" t="str">
+      <c r="F4" s="92" t="str">
         <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|")</f>
         <v>|---|---|---|</v>
       </c>
@@ -36509,8 +36503,8 @@
       <c r="D5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="99" t="str">
-        <f t="shared" ref="F5:F68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
+      <c r="F5" s="25" t="str">
+        <f t="shared" ref="F5:F23" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
         <v>| 11 | 0.025 - 0.05 | Open Water- areas of open water, generally with less than 25% cover of vegetation or soil. |</v>
       </c>
     </row>
@@ -36524,7 +36518,7 @@
       <c r="D6" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="99" t="str">
+      <c r="F6" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| 12 | n/a | Perennial Ice/Snow- areas characterized by a perennial cover of ice and/or snow, generally greater than 25% of total cover. |</v>
       </c>
@@ -36539,7 +36533,7 @@
       <c r="D7" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="99" t="str">
+      <c r="F7" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| 21 | 0.03 - 0.05 | Developed, Open Space- areas with a mixture of some constructed materials, but mostly vegetation in the form of lawn grasses. Impervious surfaces account for less than 20% of total cover. These areas most commonly include large-lot single-family housing units, parks, golf courses, and vegetation planted in developed settings for recreation, erosion control, or aesthetic purposes. |</v>
       </c>
@@ -36554,7 +36548,7 @@
       <c r="D8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="99" t="str">
+      <c r="F8" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| 22 | 0.06 - 0.12 | Developed, Low Intensity- areas with a mixture of constructed materials and vegetation. Impervious surfaces account for 20% to 49% percent of total cover. These areas most commonly include single-family housing units. |</v>
       </c>
@@ -36569,7 +36563,7 @@
       <c r="D9" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="99" t="str">
+      <c r="F9" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| 23 | 0.08 - 0.16 | Developed, Medium Intensity -areas with a mixture of constructed materials and vegetation. Impervious surfaces account for 50% to 79% of the total cover. These areas most commonly include single-family housing units. |</v>
       </c>
@@ -36584,7 +36578,7 @@
       <c r="D10" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="99" t="str">
+      <c r="F10" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| 24 | 0.12 - 0.20 | Developed High Intensity-highly developed areas where people reside or work in high numbers. Examples include apartment complexes, row houses and commercial/industrial. Impervious surfaces account for 80% to 100% of the total cover. |</v>
       </c>
@@ -36599,7 +36593,7 @@
       <c r="D11" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="99" t="str">
+      <c r="F11" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| 31 | 0.023 - 0.030 | Barren Land (Rock/Sand/Clay) - areas of bedrock, desert pavement, scarps, talus, slides, volcanic material, glacial debris, sand dunes, strip mines, gravel pits and other accumulations of earthen material. Generally, vegetation accounts for less than 15% of total cover. |</v>
       </c>
@@ -36614,7 +36608,7 @@
       <c r="D12" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="99" t="str">
+      <c r="F12" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| 41 | 0.10 - 0.20 | Deciduous Forest- areas dominated by trees generally greater than 5 meters tall, and greater than 20% of total vegetation cover. More than 75% of the tree species shed foliage simultaneously in response to seasonal change. |</v>
       </c>
@@ -36629,7 +36623,7 @@
       <c r="D13" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="99" t="str">
+      <c r="F13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| 42 | 0.08 - 0.16 | Evergreen Forest- areas dominated by trees generally greater than 5 meters tall, and greater than 20% of total vegetation cover. More than 75% of the tree species maintain their leaves all year. Canopy is never without green foliage. |</v>
       </c>
@@ -36644,7 +36638,7 @@
       <c r="D14" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="99" t="str">
+      <c r="F14" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| 43 | 0.08 - 0.20 | Mixed Forest- areas dominated by trees generally greater than 5 meters tall, and greater than 20% of total vegetation cover. Neither deciduous nor evergreen species are greater than 75% of total tree cover. |</v>
       </c>
@@ -36659,7 +36653,7 @@
       <c r="D15" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="99" t="str">
+      <c r="F15" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| 51 | 0.025 - 0.05 | Dwarf Scrub- Alaska only areas dominated by shrubs less than 20 centimeters tall with shrub canopy typically greater than 20% of total vegetation. This type is often co-associated with grasses, sedges, herbs, and non-vascular vegetation. |</v>
       </c>
@@ -36674,7 +36668,7 @@
       <c r="D16" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="99" t="str">
+      <c r="F16" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| 52 | 0.07 - 0.16 | Shrub/Scrub- areas dominated by shrubs; less than 5 meters tall with shrub canopy typically greater than 20% of total vegetation. This class includes true shrubs, young trees in an early successional stage or trees stunted from environmental conditions. |</v>
       </c>
@@ -36689,7 +36683,7 @@
       <c r="D17" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="99" t="str">
+      <c r="F17" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| 71 | 0.025 - 0.05 | Grassland/Herbaceous- areas dominated by gramanoid or herbaceous vegetation, generally greater than 80% of total vegetation. These areas are not subject to intensive management such as tilling, but can be utilized for grazing. |</v>
       </c>
@@ -36704,7 +36698,7 @@
       <c r="D18" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="99" t="str">
+      <c r="F18" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| 72 | 0.025 - 0.05 | Sedge/Herbaceous- Alaska only areas dominated by sedges and forbs, generally greater than 80% of total vegetation. This type can occur with significant other grasses or other grass like plants, and includes sedge tundra, and sedge tussock tundra. |</v>
       </c>
@@ -36719,7 +36713,7 @@
       <c r="D19" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="99" t="str">
+      <c r="F19" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| 73 | n/a | Lichens- Alaska only areas dominated by fruticose or foliose lichens generally greater than 80% of total vegetation. |</v>
       </c>
@@ -36734,7 +36728,7 @@
       <c r="D20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="99" t="str">
+      <c r="F20" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| 74 | n/a | Moss- Alaska only areas dominated by mosses, generally greater than 80% of total vegetation. |</v>
       </c>
@@ -36749,7 +36743,7 @@
       <c r="D21" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="99" t="str">
+      <c r="F21" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| 81 | 0.025 - 0.05 | Pasture/Hay-areas of grasses, legumes, or grass-legume mixtures planted for livestock grazing or the production of seed or hay crops, typically on a perennial cycle. Pasture/hay vegetation accounts for greater than 20% of total vegetation. |</v>
       </c>
@@ -36764,7 +36758,7 @@
       <c r="D22" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="99" t="str">
+      <c r="F22" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| 82 | 0.020 - 0.05 | Cultivated Crops -areas used for the production of annual crops, such as corn, soybeans, vegetables, tobacco, and cotton, and also perennial woody crops such as orchards and vineyards. Crop vegetation accounts for greater than 20% of total vegetation. This class also includes all land being actively tilled. |</v>
       </c>
@@ -36779,7 +36773,7 @@
       <c r="D23" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="99" t="str">
+      <c r="F23" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| 90 | 0.045 - 0.15 | Woody Wetlands- areas where forest or shrubland vegetation accounts for greater than 20% of vegetative cover and the soil or substrate is periodically saturated with or covered with water. |</v>
       </c>
@@ -36788,247 +36782,247 @@
       <c r="B24" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="99"/>
+      <c r="F24" s="25"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="F25" s="99"/>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F26" s="99"/>
+      <c r="F26" s="25"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F27" s="99"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F28" s="99"/>
+      <c r="F28" s="25"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F29" s="99"/>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F30" s="99"/>
+      <c r="F30" s="25"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F31" s="99"/>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F32" s="99"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F33" s="99"/>
+      <c r="F33" s="25"/>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F34" s="99"/>
+      <c r="F34" s="25"/>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F35" s="99"/>
+      <c r="F35" s="25"/>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F36" s="99"/>
+      <c r="F36" s="25"/>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F37" s="99"/>
+      <c r="F37" s="25"/>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F38" s="99"/>
+      <c r="F38" s="25"/>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F39" s="99"/>
+      <c r="F39" s="25"/>
     </row>
     <row r="40" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F40" s="99"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F41" s="99"/>
+      <c r="F41" s="25"/>
     </row>
     <row r="42" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F42" s="99"/>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F43" s="99"/>
+      <c r="F43" s="25"/>
     </row>
     <row r="44" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F44" s="99"/>
+      <c r="F44" s="25"/>
     </row>
     <row r="45" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F45" s="99"/>
+      <c r="F45" s="25"/>
     </row>
     <row r="46" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F46" s="99"/>
+      <c r="F46" s="25"/>
     </row>
     <row r="47" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F47" s="99"/>
+      <c r="F47" s="25"/>
     </row>
     <row r="48" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F48" s="99"/>
+      <c r="F48" s="25"/>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F49" s="99"/>
+      <c r="F49" s="25"/>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F50" s="99"/>
+      <c r="F50" s="25"/>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F51" s="99"/>
+      <c r="F51" s="25"/>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F52" s="99"/>
+      <c r="F52" s="25"/>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F53" s="99"/>
+      <c r="F53" s="25"/>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F54" s="99"/>
+      <c r="F54" s="25"/>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F55" s="99"/>
+      <c r="F55" s="25"/>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F56" s="99"/>
+      <c r="F56" s="25"/>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F57" s="99"/>
+      <c r="F57" s="25"/>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F58" s="99"/>
+      <c r="F58" s="25"/>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F59" s="99"/>
+      <c r="F59" s="25"/>
     </row>
     <row r="60" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F60" s="99"/>
+      <c r="F60" s="25"/>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F61" s="99"/>
+      <c r="F61" s="25"/>
     </row>
     <row r="62" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F62" s="99"/>
+      <c r="F62" s="25"/>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F63" s="99"/>
+      <c r="F63" s="25"/>
     </row>
     <row r="64" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F64" s="99"/>
+      <c r="F64" s="25"/>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F65" s="99"/>
+      <c r="F65" s="25"/>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F66" s="99"/>
+      <c r="F66" s="25"/>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F67" s="99"/>
+      <c r="F67" s="25"/>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F68" s="99"/>
+      <c r="F68" s="25"/>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F69" s="99"/>
+      <c r="F69" s="25"/>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F70" s="99"/>
+      <c r="F70" s="25"/>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F71" s="99"/>
+      <c r="F71" s="25"/>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F72" s="99"/>
+      <c r="F72" s="25"/>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F73" s="99"/>
+      <c r="F73" s="25"/>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F74" s="99"/>
+      <c r="F74" s="25"/>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F75" s="99"/>
+      <c r="F75" s="25"/>
     </row>
     <row r="76" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F76" s="99"/>
+      <c r="F76" s="25"/>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F77" s="99"/>
+      <c r="F77" s="25"/>
     </row>
     <row r="78" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F78" s="99"/>
+      <c r="F78" s="25"/>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F79" s="99"/>
+      <c r="F79" s="25"/>
     </row>
     <row r="80" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F80" s="99"/>
+      <c r="F80" s="25"/>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F81" s="99"/>
+      <c r="F81" s="25"/>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F82" s="99"/>
+      <c r="F82" s="25"/>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F83" s="99"/>
+      <c r="F83" s="25"/>
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F84" s="99"/>
+      <c r="F84" s="25"/>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F85" s="99"/>
+      <c r="F85" s="25"/>
     </row>
     <row r="86" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F86" s="99"/>
+      <c r="F86" s="25"/>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F87" s="99"/>
+      <c r="F87" s="25"/>
     </row>
     <row r="88" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F88" s="99"/>
+      <c r="F88" s="25"/>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F89" s="99"/>
+      <c r="F89" s="25"/>
     </row>
     <row r="90" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F90" s="99"/>
+      <c r="F90" s="25"/>
     </row>
     <row r="91" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F91" s="99"/>
+      <c r="F91" s="25"/>
     </row>
     <row r="92" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F92" s="99"/>
+      <c r="F92" s="25"/>
     </row>
     <row r="93" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F93" s="99"/>
+      <c r="F93" s="25"/>
     </row>
     <row r="94" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F94" s="99"/>
+      <c r="F94" s="25"/>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F95" s="99"/>
+      <c r="F95" s="25"/>
     </row>
     <row r="96" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F96" s="99"/>
+      <c r="F96" s="25"/>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F97" s="99"/>
+      <c r="F97" s="25"/>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F98" s="99"/>
+      <c r="F98" s="25"/>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F99" s="99"/>
+      <c r="F99" s="25"/>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F100" s="99"/>
+      <c r="F100" s="25"/>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F101" s="99"/>
+      <c r="F101" s="25"/>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F102" s="99"/>
+      <c r="F102" s="25"/>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F103" s="99"/>
+      <c r="F103" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -37056,7 +37050,7 @@
     <col min="4" max="4" width="11.1328125" style="9" customWidth="1"/>
     <col min="5" max="5" width="11.1328125" style="25" customWidth="1"/>
     <col min="6" max="6" width="2.59765625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="69.19921875" style="101" customWidth="1"/>
+    <col min="7" max="7" width="69.19921875" style="9" customWidth="1"/>
     <col min="8" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
@@ -37064,7 +37058,7 @@
       <c r="B2" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="99" t="s">
+      <c r="G2" s="25" t="s">
         <v>113</v>
       </c>
     </row>
@@ -37081,25 +37075,25 @@
       <c r="E3" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="99" t="str">
+      <c r="G3" s="25" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
         <v>| LandUse | LandUse_es | ManningN | PercImperv |</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="100" t="str">
+      <c r="G4" s="92" t="str">
         <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|",E4,"|")</f>
         <v>|---|---|---|---|</v>
       </c>
@@ -37117,7 +37111,7 @@
       <c r="E5" s="29">
         <v>100</v>
       </c>
-      <c r="G5" s="99" t="str">
+      <c r="G5" s="25" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
         <v>| No data | Sin uso definido | 0.066 | 100 |</v>
       </c>
@@ -37135,8 +37129,8 @@
       <c r="E6" s="29">
         <v>100</v>
       </c>
-      <c r="G6" s="99" t="str">
-        <f t="shared" ref="G6:G69" si="0">_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," | ",E6," |")</f>
+      <c r="G6" s="25" t="str">
+        <f t="shared" ref="G6:G20" si="0">_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," | ",E6," |")</f>
         <v>| Open water | Cuerpo de agua | 0.035 | 100 |</v>
       </c>
     </row>
@@ -37153,7 +37147,7 @@
       <c r="E7" s="29">
         <v>25</v>
       </c>
-      <c r="G7" s="99" t="str">
+      <c r="G7" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| Developed, open space | Urbanizado con espacio libre | 0.03 | 25 |</v>
       </c>
@@ -37171,7 +37165,7 @@
       <c r="E8" s="29">
         <v>50</v>
       </c>
-      <c r="G8" s="99" t="str">
+      <c r="G8" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| Developed, low intensity | Urbanizado con intensidad baja | 0.06 | 50 |</v>
       </c>
@@ -37189,7 +37183,7 @@
       <c r="E9" s="29">
         <v>80</v>
       </c>
-      <c r="G9" s="99" t="str">
+      <c r="G9" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| Developed, medium intensity | Urbanizado con intensidad media | 0.1 | 80 |</v>
       </c>
@@ -37207,7 +37201,7 @@
       <c r="E10" s="29">
         <v>90</v>
       </c>
-      <c r="G10" s="99" t="str">
+      <c r="G10" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| Developed, high intensity | Urbanizado con intensidad alta | 0.15 | 90 |</v>
       </c>
@@ -37225,7 +37219,7 @@
       <c r="E11" s="38">
         <v>100</v>
       </c>
-      <c r="G11" s="99" t="str">
+      <c r="G11" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| Barren land rock / sand / clay | Suelo árido rocoso / arena / arcilla | 0.02 | 100 |</v>
       </c>
@@ -37243,7 +37237,7 @@
       <c r="E12" s="38">
         <v>0</v>
       </c>
-      <c r="G12" s="99" t="str">
+      <c r="G12" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| Deciduous forest | Bosque caducifolio (estacionario) | 0.1 | 0 |</v>
       </c>
@@ -37261,7 +37255,7 @@
       <c r="E13" s="38">
         <v>0</v>
       </c>
-      <c r="G13" s="99" t="str">
+      <c r="G13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| Evergreen forest | Bosque verde (permanente) | 0.1 | 0 |</v>
       </c>
@@ -37279,7 +37273,7 @@
       <c r="E14" s="38">
         <v>0</v>
       </c>
-      <c r="G14" s="99" t="str">
+      <c r="G14" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| Mixed forest | Bosque combinado (estacionario y permanente) | 0.1 | 0 |</v>
       </c>
@@ -37297,7 +37291,7 @@
       <c r="E15" s="38">
         <v>20</v>
       </c>
-      <c r="G15" s="99" t="str">
+      <c r="G15" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| Shrub / Scrub | Arbusto / Matorral | 0.06 | 20 |</v>
       </c>
@@ -37315,7 +37309,7 @@
       <c r="E16" s="38">
         <v>0</v>
       </c>
-      <c r="G16" s="99" t="str">
+      <c r="G16" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| Grassland / Herbaceous | Pastizal / Herbáceo | 0.04 | 0 |</v>
       </c>
@@ -37333,7 +37327,7 @@
       <c r="E17" s="38">
         <v>0</v>
       </c>
-      <c r="G17" s="99" t="str">
+      <c r="G17" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| Pasture / Hay | Pasto / Heno | 0.06 | 0 |</v>
       </c>
@@ -37351,7 +37345,7 @@
       <c r="E18" s="38">
         <v>0</v>
       </c>
-      <c r="G18" s="99" t="str">
+      <c r="G18" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| Cultivated crops | Cultivo | 0.05 | 0 |</v>
       </c>
@@ -37369,7 +37363,7 @@
       <c r="E19" s="38">
         <v>80</v>
       </c>
-      <c r="G19" s="99" t="str">
+      <c r="G19" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| Woody wetlands | Humedal con troncos | 0.12 | 80 |</v>
       </c>
@@ -37387,7 +37381,7 @@
       <c r="E20" s="38">
         <v>80</v>
       </c>
-      <c r="G20" s="99" t="str">
+      <c r="G20" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| Emergent herbaceous wetlands | Humedal herbáceo emergente | 0.1 | 80 |</v>
       </c>
@@ -37397,264 +37391,264 @@
       <c r="C21" s="42"/>
       <c r="D21" s="42"/>
       <c r="E21" s="31"/>
-      <c r="G21" s="99"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="95"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="32"/>
-      <c r="G22" s="99"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
-      <c r="G23" s="99"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
-      <c r="G24" s="99"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G25" s="99"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G26" s="99"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G27" s="99"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G28" s="99"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G29" s="99"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G30" s="99"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G31" s="99"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G32" s="99"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G33" s="99"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G34" s="99"/>
+      <c r="G34" s="25"/>
     </row>
     <row r="35" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G35" s="99"/>
+      <c r="G35" s="25"/>
     </row>
     <row r="36" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G36" s="99"/>
+      <c r="G36" s="25"/>
     </row>
     <row r="37" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G37" s="99"/>
+      <c r="G37" s="25"/>
     </row>
     <row r="38" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G38" s="99"/>
+      <c r="G38" s="25"/>
     </row>
     <row r="39" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G39" s="99"/>
+      <c r="G39" s="25"/>
     </row>
     <row r="40" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G40" s="99"/>
+      <c r="G40" s="25"/>
     </row>
     <row r="41" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G41" s="99"/>
+      <c r="G41" s="25"/>
     </row>
     <row r="42" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G42" s="99"/>
+      <c r="G42" s="25"/>
     </row>
     <row r="43" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G43" s="99"/>
+      <c r="G43" s="25"/>
     </row>
     <row r="44" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G44" s="99"/>
+      <c r="G44" s="25"/>
     </row>
     <row r="45" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G45" s="99"/>
+      <c r="G45" s="25"/>
     </row>
     <row r="46" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G46" s="99"/>
+      <c r="G46" s="25"/>
     </row>
     <row r="47" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G47" s="99"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G48" s="99"/>
+      <c r="G48" s="25"/>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G49" s="99"/>
+      <c r="G49" s="25"/>
     </row>
     <row r="50" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G50" s="99"/>
+      <c r="G50" s="25"/>
     </row>
     <row r="51" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G51" s="99"/>
+      <c r="G51" s="25"/>
     </row>
     <row r="52" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G52" s="99"/>
+      <c r="G52" s="25"/>
     </row>
     <row r="53" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G53" s="99"/>
+      <c r="G53" s="25"/>
     </row>
     <row r="54" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G54" s="99"/>
+      <c r="G54" s="25"/>
     </row>
     <row r="55" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G55" s="99"/>
+      <c r="G55" s="25"/>
     </row>
     <row r="56" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G56" s="99"/>
+      <c r="G56" s="25"/>
     </row>
     <row r="57" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G57" s="99"/>
+      <c r="G57" s="25"/>
     </row>
     <row r="58" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G58" s="99"/>
+      <c r="G58" s="25"/>
     </row>
     <row r="59" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G59" s="99"/>
+      <c r="G59" s="25"/>
     </row>
     <row r="60" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G60" s="99"/>
+      <c r="G60" s="25"/>
     </row>
     <row r="61" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G61" s="99"/>
+      <c r="G61" s="25"/>
     </row>
     <row r="62" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G62" s="99"/>
+      <c r="G62" s="25"/>
     </row>
     <row r="63" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G63" s="99"/>
+      <c r="G63" s="25"/>
     </row>
     <row r="64" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G64" s="99"/>
+      <c r="G64" s="25"/>
     </row>
     <row r="65" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G65" s="99"/>
+      <c r="G65" s="25"/>
     </row>
     <row r="66" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G66" s="99"/>
+      <c r="G66" s="25"/>
     </row>
     <row r="67" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G67" s="99"/>
+      <c r="G67" s="25"/>
     </row>
     <row r="68" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G68" s="99"/>
+      <c r="G68" s="25"/>
     </row>
     <row r="69" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G69" s="99"/>
+      <c r="G69" s="25"/>
     </row>
     <row r="70" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G70" s="99"/>
+      <c r="G70" s="25"/>
     </row>
     <row r="71" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G71" s="99"/>
+      <c r="G71" s="25"/>
     </row>
     <row r="72" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G72" s="99"/>
+      <c r="G72" s="25"/>
     </row>
     <row r="73" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G73" s="99"/>
+      <c r="G73" s="25"/>
     </row>
     <row r="74" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G74" s="99"/>
+      <c r="G74" s="25"/>
     </row>
     <row r="75" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G75" s="99"/>
+      <c r="G75" s="25"/>
     </row>
     <row r="76" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G76" s="99"/>
+      <c r="G76" s="25"/>
     </row>
     <row r="77" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G77" s="99"/>
+      <c r="G77" s="25"/>
     </row>
     <row r="78" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G78" s="99"/>
+      <c r="G78" s="25"/>
     </row>
     <row r="79" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G79" s="99"/>
+      <c r="G79" s="25"/>
     </row>
     <row r="80" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G80" s="99"/>
+      <c r="G80" s="25"/>
     </row>
     <row r="81" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G81" s="99"/>
+      <c r="G81" s="25"/>
     </row>
     <row r="82" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G82" s="99"/>
+      <c r="G82" s="25"/>
     </row>
     <row r="83" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G83" s="99"/>
+      <c r="G83" s="25"/>
     </row>
     <row r="84" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G84" s="99"/>
+      <c r="G84" s="25"/>
     </row>
     <row r="85" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G85" s="99"/>
+      <c r="G85" s="25"/>
     </row>
     <row r="86" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G86" s="99"/>
+      <c r="G86" s="25"/>
     </row>
     <row r="87" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G87" s="99"/>
+      <c r="G87" s="25"/>
     </row>
     <row r="88" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G88" s="99"/>
+      <c r="G88" s="25"/>
     </row>
     <row r="89" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G89" s="99"/>
+      <c r="G89" s="25"/>
     </row>
     <row r="90" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G90" s="99"/>
+      <c r="G90" s="25"/>
     </row>
     <row r="91" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G91" s="99"/>
+      <c r="G91" s="25"/>
     </row>
     <row r="92" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G92" s="99"/>
+      <c r="G92" s="25"/>
     </row>
     <row r="93" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G93" s="99"/>
+      <c r="G93" s="25"/>
     </row>
     <row r="94" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G94" s="99"/>
+      <c r="G94" s="25"/>
     </row>
     <row r="95" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G95" s="99"/>
+      <c r="G95" s="25"/>
     </row>
     <row r="96" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G96" s="99"/>
+      <c r="G96" s="25"/>
     </row>
     <row r="97" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G97" s="99"/>
+      <c r="G97" s="25"/>
     </row>
     <row r="98" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G98" s="99"/>
+      <c r="G98" s="25"/>
     </row>
     <row r="99" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G99" s="99"/>
+      <c r="G99" s="25"/>
     </row>
     <row r="100" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G100" s="99"/>
+      <c r="G100" s="25"/>
     </row>
     <row r="101" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G101" s="99"/>
+      <c r="G101" s="25"/>
     </row>
     <row r="102" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G102" s="99"/>
+      <c r="G102" s="25"/>
     </row>
     <row r="103" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G103" s="99"/>
+      <c r="G103" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -37671,8 +37665,8 @@
   <dimension ref="B1:O103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -37683,7 +37677,7 @@
     <col min="4" max="12" width="9.33203125" style="33" customWidth="1"/>
     <col min="13" max="13" width="41.1328125" style="25" customWidth="1"/>
     <col min="14" max="14" width="2.59765625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="69.19921875" style="101" customWidth="1"/>
+    <col min="15" max="15" width="69.19921875" style="9" customWidth="1"/>
     <col min="16" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
@@ -37693,27 +37687,27 @@
       </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" s="106"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="91" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="92" t="s">
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="92"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="112" t="s">
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="99" t="s">
+      <c r="O2" s="25" t="s">
         <v>113</v>
       </c>
     </row>
@@ -37721,7 +37715,7 @@
       <c r="B3" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="96" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="56" t="s">
@@ -37751,19 +37745,19 @@
       <c r="L3" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="113" t="s">
+      <c r="M3" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="O3" s="99" t="str">
+      <c r="O3" s="25" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",J3," | ",K3," | ",L3," | ",M3," |")</f>
         <v>| SCS Soil Group | Description | Min | Average | Max | Cundinamarca Soils association  |</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="99" t="s">
         <v>111</v>
       </c>
       <c r="D4" s="56"/>
@@ -37772,19 +37766,19 @@
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
       <c r="I4" s="45"/>
-      <c r="J4" s="109" t="s">
+      <c r="J4" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="L4" s="111" t="s">
+      <c r="L4" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="M4" s="114" t="s">
+      <c r="M4" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="O4" s="99" t="str">
+      <c r="O4" s="25" t="str">
         <f t="shared" ref="O4:O11" si="0">_xlfn.CONCAT("| ",B4," | ",C4," | ",J4," | ",K4," | ",L4," | ",M4," |")</f>
         <v>| --- | --- | --- | --- | --- | --- |</v>
       </c>
@@ -37833,7 +37827,7 @@
       <c r="M5" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="O5" s="99" t="str">
+      <c r="O5" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| A | Soils having a high infiltration rate (low runoff potential) when thoroughly wet. These consist mainly of deep, well drained to excessively drained sands or gravelly sands. These soils have a high rate of water transmission.  | 7.62 | 9.525 | 11.43 | Bien drenados. Bien a excesivamente drenados |</v>
       </c>
@@ -37882,7 +37876,7 @@
       <c r="M6" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="O6" s="99" t="str">
+      <c r="O6" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| B | Soils having a moderate infiltration rate when thoroughly wet. These consist chiefly of moderately deep or deep, moderately well drained or well drained soils that have moderately fine texture to moderately coarse texture. These soils have a moderate rate of water transmission. | 3.81 | 5.715 | 7.62 | Bien a moderadamente bien drenados. Moderadamente bien drenados |</v>
       </c>
@@ -37931,7 +37925,7 @@
       <c r="M7" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="O7" s="99" t="str">
+      <c r="O7" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| C | Soils having a slow infiltration rate when thoroughly wet. These consist chiefly of soils having a layer that impedes the downward movement of water or soils of moderately fine texture or fine texture. These soils have a slow rate of water transmission.  | 1.27 | 2.54 | 3.81 | Pobremente drenados |</v>
       </c>
@@ -37980,7 +37974,7 @@
       <c r="M8" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="O8" s="99" t="str">
+      <c r="O8" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| D | Soils having a very slow infiltration rate (high runoff potential) when thoroughly wet. These consist chiefly of clays that have a high shrink-swell potential, soils that have a high water table, soils that have a claypan or clay layer at or near the surface, and soils that are shallow over nearly impervious material. These soils have a very slow rate of water transmission. | 0 | 0.635 | 1.27 | Pobre a muy pobremente drenados. Cuerpo de agua. Pantanos. Misceláneo erosionado. Playones. Nulos o vacíos |</v>
       </c>
@@ -38031,7 +38025,7 @@
       <c r="M9" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="O9" s="99" t="str">
+      <c r="O9" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| A/D | If a soil is assigned to a dual hydrologic group (A/D, B/D, or C/D), the first letter is for drained areas and the second is for undrained areas. Only the soils that in their natural condition are in group D are assigned to dual classes.  | 3.81 | 5.08 | 6.35 | Bien a imperfectamente drenados. Bien a muy pobremente drenados. Bien a pobremente drenados. Bien y pobremente drenados |</v>
       </c>
@@ -38082,7 +38076,7 @@
       <c r="M10" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="O10" s="99" t="str">
+      <c r="O10" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| B/D | If a soil is assigned to a dual hydrologic group (A/D, B/D, or C/D), the first letter is for drained areas and the second is for undrained areas. Only the soils that in their natural condition are in group D are assigned to dual classes.  | 1.905 | 3.175 | 4.445 | Moderadamente bien drenados a pobremente drenados. Moderada a pobremente drenados. Pobre a moderadamente bien drenados |</v>
       </c>
@@ -38131,7 +38125,7 @@
         <v>2.54</v>
       </c>
       <c r="M11" s="51"/>
-      <c r="O11" s="99" t="str">
+      <c r="O11" s="25" t="str">
         <f t="shared" si="0"/>
         <v>| C/D | If a soil is assigned to a dual hydrologic group (A/D, B/D, or C/D), the first letter is for drained areas and the second is for undrained areas. Only the soils that in their natural condition are in group D are assigned to dual classes.  | 0.635 | 1.5875 | 2.54 |  |</v>
       </c>
@@ -38140,289 +38134,289 @@
       <c r="B12" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="O12" s="99"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="O13" s="99"/>
+      <c r="O13" s="25"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="O14" s="99"/>
+      <c r="O14" s="25"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="O15" s="99"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="O16" s="99"/>
+      <c r="O16" s="25"/>
     </row>
     <row r="17" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O17" s="99"/>
+      <c r="O17" s="25"/>
     </row>
     <row r="18" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O18" s="99"/>
+      <c r="O18" s="25"/>
     </row>
     <row r="19" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O19" s="99"/>
+      <c r="O19" s="25"/>
     </row>
     <row r="20" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O20" s="99"/>
+      <c r="O20" s="25"/>
     </row>
     <row r="21" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O21" s="99"/>
+      <c r="O21" s="25"/>
     </row>
     <row r="22" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O22" s="99"/>
+      <c r="O22" s="25"/>
     </row>
     <row r="23" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O23" s="99"/>
+      <c r="O23" s="25"/>
     </row>
     <row r="24" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O24" s="99"/>
+      <c r="O24" s="25"/>
     </row>
     <row r="25" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O25" s="99"/>
+      <c r="O25" s="25"/>
     </row>
     <row r="26" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O26" s="99"/>
+      <c r="O26" s="25"/>
     </row>
     <row r="27" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O27" s="99"/>
+      <c r="O27" s="25"/>
     </row>
     <row r="28" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O28" s="99"/>
+      <c r="O28" s="25"/>
     </row>
     <row r="29" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O29" s="99"/>
+      <c r="O29" s="25"/>
     </row>
     <row r="30" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O30" s="99"/>
+      <c r="O30" s="25"/>
     </row>
     <row r="31" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O31" s="99"/>
+      <c r="O31" s="25"/>
     </row>
     <row r="32" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O32" s="99"/>
+      <c r="O32" s="25"/>
     </row>
     <row r="33" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O33" s="99"/>
+      <c r="O33" s="25"/>
     </row>
     <row r="34" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O34" s="99"/>
+      <c r="O34" s="25"/>
     </row>
     <row r="35" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O35" s="99"/>
+      <c r="O35" s="25"/>
     </row>
     <row r="36" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O36" s="99"/>
+      <c r="O36" s="25"/>
     </row>
     <row r="37" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O37" s="99"/>
+      <c r="O37" s="25"/>
     </row>
     <row r="38" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O38" s="99"/>
+      <c r="O38" s="25"/>
     </row>
     <row r="39" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O39" s="99"/>
+      <c r="O39" s="25"/>
     </row>
     <row r="40" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O40" s="99"/>
+      <c r="O40" s="25"/>
     </row>
     <row r="41" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O41" s="99"/>
+      <c r="O41" s="25"/>
     </row>
     <row r="42" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O42" s="99"/>
+      <c r="O42" s="25"/>
     </row>
     <row r="43" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O43" s="99"/>
+      <c r="O43" s="25"/>
     </row>
     <row r="44" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O44" s="99"/>
+      <c r="O44" s="25"/>
     </row>
     <row r="45" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O45" s="99"/>
+      <c r="O45" s="25"/>
     </row>
     <row r="46" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O46" s="99"/>
+      <c r="O46" s="25"/>
     </row>
     <row r="47" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O47" s="99"/>
+      <c r="O47" s="25"/>
     </row>
     <row r="48" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O48" s="99"/>
+      <c r="O48" s="25"/>
     </row>
     <row r="49" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O49" s="99"/>
+      <c r="O49" s="25"/>
     </row>
     <row r="50" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O50" s="99"/>
+      <c r="O50" s="25"/>
     </row>
     <row r="51" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O51" s="99"/>
+      <c r="O51" s="25"/>
     </row>
     <row r="52" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O52" s="99"/>
+      <c r="O52" s="25"/>
     </row>
     <row r="53" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O53" s="99"/>
+      <c r="O53" s="25"/>
     </row>
     <row r="54" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O54" s="99"/>
+      <c r="O54" s="25"/>
     </row>
     <row r="55" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O55" s="99"/>
+      <c r="O55" s="25"/>
     </row>
     <row r="56" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O56" s="99"/>
+      <c r="O56" s="25"/>
     </row>
     <row r="57" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O57" s="99"/>
+      <c r="O57" s="25"/>
     </row>
     <row r="58" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O58" s="99"/>
+      <c r="O58" s="25"/>
     </row>
     <row r="59" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O59" s="99"/>
+      <c r="O59" s="25"/>
     </row>
     <row r="60" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O60" s="99"/>
+      <c r="O60" s="25"/>
     </row>
     <row r="61" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O61" s="99"/>
+      <c r="O61" s="25"/>
     </row>
     <row r="62" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O62" s="99"/>
+      <c r="O62" s="25"/>
     </row>
     <row r="63" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O63" s="99"/>
+      <c r="O63" s="25"/>
     </row>
     <row r="64" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O64" s="99"/>
+      <c r="O64" s="25"/>
     </row>
     <row r="65" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O65" s="99"/>
+      <c r="O65" s="25"/>
     </row>
     <row r="66" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O66" s="99"/>
+      <c r="O66" s="25"/>
     </row>
     <row r="67" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O67" s="99"/>
+      <c r="O67" s="25"/>
     </row>
     <row r="68" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O68" s="99"/>
+      <c r="O68" s="25"/>
     </row>
     <row r="69" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O69" s="99"/>
+      <c r="O69" s="25"/>
     </row>
     <row r="70" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O70" s="99"/>
+      <c r="O70" s="25"/>
     </row>
     <row r="71" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O71" s="99"/>
+      <c r="O71" s="25"/>
     </row>
     <row r="72" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O72" s="99"/>
+      <c r="O72" s="25"/>
     </row>
     <row r="73" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O73" s="99"/>
+      <c r="O73" s="25"/>
     </row>
     <row r="74" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O74" s="99"/>
+      <c r="O74" s="25"/>
     </row>
     <row r="75" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O75" s="99"/>
+      <c r="O75" s="25"/>
     </row>
     <row r="76" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O76" s="99"/>
+      <c r="O76" s="25"/>
     </row>
     <row r="77" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O77" s="99"/>
+      <c r="O77" s="25"/>
     </row>
     <row r="78" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O78" s="99"/>
+      <c r="O78" s="25"/>
     </row>
     <row r="79" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O79" s="99"/>
+      <c r="O79" s="25"/>
     </row>
     <row r="80" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O80" s="99"/>
+      <c r="O80" s="25"/>
     </row>
     <row r="81" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O81" s="99"/>
+      <c r="O81" s="25"/>
     </row>
     <row r="82" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O82" s="99"/>
+      <c r="O82" s="25"/>
     </row>
     <row r="83" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O83" s="99"/>
+      <c r="O83" s="25"/>
     </row>
     <row r="84" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O84" s="99"/>
+      <c r="O84" s="25"/>
     </row>
     <row r="85" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O85" s="99"/>
+      <c r="O85" s="25"/>
     </row>
     <row r="86" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O86" s="99"/>
+      <c r="O86" s="25"/>
     </row>
     <row r="87" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O87" s="99"/>
+      <c r="O87" s="25"/>
     </row>
     <row r="88" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O88" s="99"/>
+      <c r="O88" s="25"/>
     </row>
     <row r="89" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O89" s="99"/>
+      <c r="O89" s="25"/>
     </row>
     <row r="90" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O90" s="99"/>
+      <c r="O90" s="25"/>
     </row>
     <row r="91" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O91" s="99"/>
+      <c r="O91" s="25"/>
     </row>
     <row r="92" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O92" s="99"/>
+      <c r="O92" s="25"/>
     </row>
     <row r="93" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O93" s="99"/>
+      <c r="O93" s="25"/>
     </row>
     <row r="94" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O94" s="99"/>
+      <c r="O94" s="25"/>
     </row>
     <row r="95" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O95" s="99"/>
+      <c r="O95" s="25"/>
     </row>
     <row r="96" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O96" s="99"/>
+      <c r="O96" s="25"/>
     </row>
     <row r="97" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O97" s="99"/>
+      <c r="O97" s="25"/>
     </row>
     <row r="98" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O98" s="99"/>
+      <c r="O98" s="25"/>
     </row>
     <row r="99" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O99" s="99"/>
+      <c r="O99" s="25"/>
     </row>
     <row r="100" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O100" s="99"/>
+      <c r="O100" s="25"/>
     </row>
     <row r="101" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O101" s="99"/>
+      <c r="O101" s="25"/>
     </row>
     <row r="102" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O102" s="99"/>
+      <c r="O102" s="25"/>
     </row>
     <row r="103" spans="15:15" x14ac:dyDescent="0.45">
-      <c r="O103" s="99"/>
+      <c r="O103" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.HydroBogota\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851F6D69-9E36-46F6-BCDF-9C1B133959E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E320A083-4515-4A4B-9FD0-11F3D37DBA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" firstSheet="1" activeTab="5" xr2:uid="{3E1898FA-83B9-434A-8B97-00E46467114B}"/>
   </bookViews>
@@ -37666,7 +37666,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -38149,7 +38149,7 @@
       <c r="O14" s="25"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="32" t="s">
         <v>93</v>
       </c>
       <c r="O15" s="25"/>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.HydroBogota\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426C87BD-E5DD-48C5-9B15-063F1EC87520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA5C7C8-050E-45D0-9F1A-0CDEBEBC4092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{3E1898FA-83B9-434A-8B97-00E46467114B}"/>
   </bookViews>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.HydroBogota\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA5C7C8-050E-45D0-9F1A-0CDEBEBC4092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFFF490-FE64-4A2B-993B-54D9FD0AE50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{3E1898FA-83B9-434A-8B97-00E46467114B}"/>
   </bookViews>
@@ -1730,22 +1730,22 @@
                   <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4642.8571428571422</c:v>
+                  <c:v>4642.8571428571468</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9285.7142857142844</c:v>
+                  <c:v>9285.7142857142935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7428.5714285714284</c:v>
+                  <c:v>7428.5714285714357</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5571.4285714285716</c:v>
+                  <c:v>5571.4285714285761</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3714.2857142857142</c:v>
+                  <c:v>3714.2857142857179</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1857.1428571428571</c:v>
+                  <c:v>1857.1428571428589</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.8</c:v>
@@ -1841,22 +1841,22 @@
                   <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27361.111111111109</c:v>
+                  <c:v>27361.111111111135</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54722.222222222219</c:v>
+                  <c:v>54722.22222222227</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43777.777777777774</c:v>
+                  <c:v>43777.777777777817</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32833.333333333336</c:v>
+                  <c:v>32833.333333333365</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21888.888888888887</c:v>
+                  <c:v>21888.888888888909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10944.444444444443</c:v>
+                  <c:v>10944.444444444454</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.9</c:v>
@@ -1952,22 +1952,22 @@
                   <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3575.3968253968251</c:v>
+                  <c:v>3575.3968253968287</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7150.7936507936502</c:v>
+                  <c:v>7150.7936507936574</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5720.6349206349205</c:v>
+                  <c:v>5720.6349206349259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4290.4761904761899</c:v>
+                  <c:v>4290.4761904761945</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2860.3174603174602</c:v>
+                  <c:v>2860.317460317463</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1430.1587301587301</c:v>
+                  <c:v>1430.1587301587315</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.6</c:v>
@@ -2063,22 +2063,22 @@
                   <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2976.1904761904757</c:v>
+                  <c:v>2976.1904761904789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5952.3809523809514</c:v>
+                  <c:v>5952.3809523809578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4761.9047619047624</c:v>
+                  <c:v>4761.9047619047669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3571.4285714285711</c:v>
+                  <c:v>3571.4285714285747</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2380.9523809523812</c:v>
+                  <c:v>2380.9523809523835</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1190.4761904761906</c:v>
+                  <c:v>1190.4761904761917</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.2</c:v>
@@ -2174,22 +2174,22 @@
                   <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>265.87301587301585</c:v>
+                  <c:v>265.87301587301613</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>531.74603174603169</c:v>
+                  <c:v>531.74603174603226</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>425.39682539682536</c:v>
+                  <c:v>425.39682539682582</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>319.04761904761904</c:v>
+                  <c:v>319.04761904761938</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>212.69841269841268</c:v>
+                  <c:v>212.69841269841291</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>106.34920634920634</c:v>
+                  <c:v>106.34920634920645</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.67</c:v>
@@ -2285,22 +2285,22 @@
                   <c:v>0.52999999999999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130.95238095238093</c:v>
+                  <c:v>130.95238095238108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>261.90476190476187</c:v>
+                  <c:v>261.90476190476215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>209.52380952380952</c:v>
+                  <c:v>209.52380952380972</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>157.14285714285714</c:v>
+                  <c:v>157.14285714285728</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104.76190476190476</c:v>
+                  <c:v>104.76190476190486</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.38095238095238</c:v>
+                  <c:v>52.380952380952429</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.52999999999999992</c:v>
@@ -7151,9 +7151,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1313E719-9DB2-4CD7-9082-8925C7754BE9}">
   <dimension ref="B2:J978"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -7472,27 +7472,27 @@
         <v>0</v>
       </c>
       <c r="D13" s="15">
-        <v>0.2857142857142857</v>
+        <v>0.28571428571428598</v>
       </c>
       <c r="E13" s="59">
         <f>D13</f>
-        <v>0.2857142857142857</v>
+        <v>0.28571428571428598</v>
       </c>
       <c r="F13" s="59">
         <f t="shared" si="4"/>
-        <v>0.2857142857142857</v>
+        <v>0.28571428571428598</v>
       </c>
       <c r="G13" s="59">
         <f t="shared" si="4"/>
-        <v>0.2857142857142857</v>
+        <v>0.28571428571428598</v>
       </c>
       <c r="H13" s="59">
         <f t="shared" si="4"/>
-        <v>0.2857142857142857</v>
+        <v>0.28571428571428598</v>
       </c>
       <c r="I13" s="59">
         <f t="shared" si="4"/>
-        <v>0.2857142857142857</v>
+        <v>0.28571428571428598</v>
       </c>
       <c r="J13" s="60"/>
     </row>
@@ -7541,27 +7541,27 @@
       </c>
       <c r="D16" s="63">
         <f>(SUM(D20:D25)/1000000)*$D$11*60</f>
-        <v>117.00000000000001</v>
+        <v>117.0000000000001</v>
       </c>
       <c r="E16" s="63">
         <f t="shared" ref="E16:I16" si="6">(SUM(E20:E25)/1000000)*$D$11*60</f>
-        <v>689.49999999999977</v>
+        <v>689.50000000000068</v>
       </c>
       <c r="F16" s="63">
         <f t="shared" si="6"/>
-        <v>90.100000000000009</v>
+        <v>90.10000000000008</v>
       </c>
       <c r="G16" s="63">
         <f t="shared" si="6"/>
-        <v>75.000000000000014</v>
+        <v>75.000000000000057</v>
       </c>
       <c r="H16" s="63">
         <f t="shared" si="6"/>
-        <v>6.6999999999999993</v>
+        <v>6.7000000000000064</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" si="6"/>
-        <v>3.3</v>
+        <v>3.3000000000000029</v>
       </c>
       <c r="J16" s="13"/>
     </row>
@@ -7572,27 +7572,27 @@
       </c>
       <c r="D17" s="63">
         <f>MAX(D19:D978)</f>
-        <v>9285.7142857142844</v>
+        <v>9285.7142857142935</v>
       </c>
       <c r="E17" s="63">
         <f t="shared" ref="E17:F17" si="7">MAX(E19:E978)</f>
-        <v>54722.222222222219</v>
+        <v>54722.22222222227</v>
       </c>
       <c r="F17" s="63">
         <f t="shared" si="7"/>
-        <v>7150.7936507936502</v>
+        <v>7150.7936507936574</v>
       </c>
       <c r="G17" s="63">
         <f t="shared" ref="G17:H17" si="8">MAX(G19:G978)</f>
-        <v>5952.3809523809514</v>
+        <v>5952.3809523809578</v>
       </c>
       <c r="H17" s="63">
         <f t="shared" si="8"/>
-        <v>531.74603174603169</v>
+        <v>531.74603174603226</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17" si="9">MAX(I19:I978)</f>
-        <v>261.90476190476187</v>
+        <v>261.90476190476215</v>
       </c>
       <c r="J17" s="13"/>
     </row>
@@ -7675,27 +7675,27 @@
       </c>
       <c r="D20" s="11">
         <f>((D$10*1000000*$B20)/($D$11*60))*D$13</f>
-        <v>4642.8571428571422</v>
+        <v>4642.8571428571468</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" ref="D20:I25" si="12">((E$10*1000000*$B20)/($D$11*60))*E$13</f>
-        <v>27361.111111111109</v>
+        <v>27361.111111111135</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="12"/>
-        <v>3575.3968253968251</v>
+        <v>3575.3968253968287</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="12"/>
-        <v>2976.1904761904757</v>
+        <v>2976.1904761904789</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="12"/>
-        <v>265.87301587301585</v>
+        <v>265.87301587301613</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="12"/>
-        <v>130.95238095238093</v>
+        <v>130.95238095238108</v>
       </c>
       <c r="J20" s="9">
         <v>1</v>
@@ -7710,27 +7710,27 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="12"/>
-        <v>9285.7142857142844</v>
+        <v>9285.7142857142935</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="12"/>
-        <v>54722.222222222219</v>
+        <v>54722.22222222227</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="12"/>
-        <v>7150.7936507936502</v>
+        <v>7150.7936507936574</v>
       </c>
       <c r="G21" s="11">
         <f t="shared" si="12"/>
-        <v>5952.3809523809514</v>
+        <v>5952.3809523809578</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="12"/>
-        <v>531.74603174603169</v>
+        <v>531.74603174603226</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="12"/>
-        <v>261.90476190476187</v>
+        <v>261.90476190476215</v>
       </c>
       <c r="J21" s="9">
         <v>1</v>
@@ -7745,27 +7745,27 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="12"/>
-        <v>7428.5714285714284</v>
+        <v>7428.5714285714357</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="12"/>
-        <v>43777.777777777774</v>
+        <v>43777.777777777817</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="12"/>
-        <v>5720.6349206349205</v>
+        <v>5720.6349206349259</v>
       </c>
       <c r="G22" s="11">
         <f t="shared" si="12"/>
-        <v>4761.9047619047624</v>
+        <v>4761.9047619047669</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="12"/>
-        <v>425.39682539682536</v>
+        <v>425.39682539682582</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="12"/>
-        <v>209.52380952380952</v>
+        <v>209.52380952380972</v>
       </c>
       <c r="J22" s="9">
         <v>1</v>
@@ -7780,27 +7780,27 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="12"/>
-        <v>5571.4285714285716</v>
+        <v>5571.4285714285761</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="12"/>
-        <v>32833.333333333336</v>
+        <v>32833.333333333365</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="12"/>
-        <v>4290.4761904761899</v>
+        <v>4290.4761904761945</v>
       </c>
       <c r="G23" s="11">
         <f t="shared" si="12"/>
-        <v>3571.4285714285711</v>
+        <v>3571.4285714285747</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="12"/>
-        <v>319.04761904761904</v>
+        <v>319.04761904761938</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" si="12"/>
-        <v>157.14285714285714</v>
+        <v>157.14285714285728</v>
       </c>
       <c r="J23" s="9">
         <v>1</v>
@@ -7815,27 +7815,27 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="12"/>
-        <v>3714.2857142857142</v>
+        <v>3714.2857142857179</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="12"/>
-        <v>21888.888888888887</v>
+        <v>21888.888888888909</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="12"/>
-        <v>2860.3174603174602</v>
+        <v>2860.317460317463</v>
       </c>
       <c r="G24" s="11">
         <f t="shared" si="12"/>
-        <v>2380.9523809523812</v>
+        <v>2380.9523809523835</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="12"/>
-        <v>212.69841269841268</v>
+        <v>212.69841269841291</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="12"/>
-        <v>104.76190476190476</v>
+        <v>104.76190476190486</v>
       </c>
       <c r="J24" s="9">
         <v>1</v>
@@ -7850,27 +7850,27 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="12"/>
-        <v>1857.1428571428571</v>
+        <v>1857.1428571428589</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="12"/>
-        <v>10944.444444444443</v>
+        <v>10944.444444444454</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="12"/>
-        <v>1430.1587301587301</v>
+        <v>1430.1587301587315</v>
       </c>
       <c r="G25" s="11">
         <f t="shared" si="12"/>
-        <v>1190.4761904761906</v>
+        <v>1190.4761904761917</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="12"/>
-        <v>106.34920634920634</v>
+        <v>106.34920634920645</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="12"/>
-        <v>52.38095238095238</v>
+        <v>52.380952380952429</v>
       </c>
       <c r="J25" s="9">
         <v>1</v>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.HydroBogota\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFFF490-FE64-4A2B-993B-54D9FD0AE50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8995976-B362-42FF-B97C-19CA322998A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{3E1898FA-83B9-434A-8B97-00E46467114B}"/>
   </bookViews>
@@ -1594,7 +1594,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CO"/>
-              <a:t>DAM peak discharge</a:t>
+              <a:t>DAM sudden peak discharge</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1603,8 +1603,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34322532817521906"/>
-          <c:y val="1.8929950802239416E-3"/>
+          <c:x val="0.35910351195701262"/>
+          <c:y val="8.9486111111111103E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1640,9 +1640,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1392910501644006"/>
+          <c:x val="0.16575465796791283"/>
           <c:y val="0.1012189170052547"/>
-          <c:w val="0.83255770683373309"/>
+          <c:w val="0.77963053541539251"/>
           <c:h val="0.75284770912436361"/>
         </c:manualLayout>
       </c:layout>
@@ -2551,8 +2551,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73715412001244107"/>
-          <c:y val="0.12757225765896046"/>
+          <c:x val="0.71951172585589462"/>
+          <c:y val="0.12051666666666666"/>
           <c:w val="0.2197920832222518"/>
           <c:h val="0.34243009511947081"/>
         </c:manualLayout>
@@ -2663,7 +2663,7 @@
               <a:rPr lang="es-CO">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>NRCS Unit Hydrograph Shape Factors</a:t>
+              <a:t>NRCS Unit Hydrograph Shape Factors - Michigan</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2672,8 +2672,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32165856871127879"/>
-          <c:y val="3.0272558331035874E-2"/>
+          <c:x val="0.23527808936398981"/>
+          <c:y val="3.0272500000000001E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2709,10 +2709,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10593802204255583"/>
-          <c:y val="0.15721104870028027"/>
-          <c:w val="0.86787156462131365"/>
-          <c:h val="0.66863340391911708"/>
+          <c:x val="0.12180378133407881"/>
+          <c:y val="0.13251666666666667"/>
+          <c:w val="0.80264546526272185"/>
+          <c:h val="0.69332777777777777"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -7151,9 +7151,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1313E719-9DB2-4CD7-9082-8925C7754BE9}">
   <dimension ref="B2:J978"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.HydroBogota\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8995976-B362-42FF-B97C-19CA322998A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D87E3F-0775-4BE2-8A74-BD7495B964F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{3E1898FA-83B9-434A-8B97-00E46467114B}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" activeTab="2" xr2:uid="{3E1898FA-83B9-434A-8B97-00E46467114B}"/>
   </bookViews>
   <sheets>
     <sheet name="FlowRain" sheetId="1" r:id="rId1"/>
@@ -1603,7 +1603,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35910351195701262"/>
+          <c:x val="0.34146114115021869"/>
           <c:y val="8.9486111111111103E-3"/>
         </c:manualLayout>
       </c:layout>
@@ -1640,9 +1640,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16575465796791283"/>
+          <c:x val="0.21162482206557712"/>
           <c:y val="0.1012189170052547"/>
-          <c:w val="0.77963053541539251"/>
+          <c:w val="0.64554851728375839"/>
           <c:h val="0.75284770912436361"/>
         </c:manualLayout>
       </c:layout>
@@ -2551,8 +2551,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.71951172585589462"/>
-          <c:y val="0.12051666666666666"/>
+          <c:x val="0.62777139766056611"/>
+          <c:y val="0.11346111111111111"/>
           <c:w val="0.2197920832222518"/>
           <c:h val="0.34243009511947081"/>
         </c:manualLayout>
@@ -2709,9 +2709,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12180378133407881"/>
+          <c:x val="0.22052428750709485"/>
           <c:y val="0.13251666666666667"/>
-          <c:w val="0.80264546526272185"/>
+          <c:w val="0.64398750891323187"/>
           <c:h val="0.69332777777777777"/>
         </c:manualLayout>
       </c:layout>
@@ -3065,10 +3065,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.74622778542726209"/>
-          <c:y val="0.25900457564592139"/>
-          <c:w val="0.20895503724318459"/>
-          <c:h val="9.9013391187419364E-2"/>
+          <c:x val="0.71978478596514217"/>
+          <c:y val="0.14611555555555558"/>
+          <c:w val="0.13138891506968806"/>
+          <c:h val="8.8429999999999995E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7151,9 +7151,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1313E719-9DB2-4CD7-9082-8925C7754BE9}">
   <dimension ref="B2:J978"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L45" sqref="L45"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -44362,8 +44362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFFC76D-3F7C-4E88-8950-245E9C1A4FDE}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.55000000000000004"/>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.HydroBogota\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D87E3F-0775-4BE2-8A74-BD7495B964F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC4E280-D81A-4442-8351-69E89B3717F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" activeTab="2" xr2:uid="{3E1898FA-83B9-434A-8B97-00E46467114B}"/>
   </bookViews>
@@ -162,12 +162,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="156">
   <si>
     <t>Multiplier</t>
-  </si>
-  <si>
-    <t>Flood wave velocity (wave celerity)</t>
   </si>
   <si>
     <t>ΔT, s</t>
@@ -621,6 +618,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Flood wave maximum velocity (wave celerity)</t>
+  </si>
+  <si>
+    <t>Flood wave minimum velocity (wave celerity)</t>
+  </si>
+  <si>
+    <t>Courant number maximum</t>
+  </si>
+  <si>
+    <t>Courant number minimum</t>
   </si>
 </sst>
 </file>
@@ -2672,7 +2681,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23527808936398981"/>
+          <c:x val="0.2987412719037858"/>
           <c:y val="3.0272500000000001E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -7172,42 +7181,42 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>146</v>
-      </c>
       <c r="J3" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="111"/>
       <c r="C4" s="102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="103" t="str">
         <f>HYPERLINK((_xlfn.CONCAT("http://maps.google.com/maps?q=",D6,",",D7)),"Ver")</f>
@@ -7238,7 +7247,7 @@
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="111"/>
       <c r="C5" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="103" t="str">
         <f>_xlfn.CONCAT("[:globe_with_meridians:](","http://maps.google.com/maps?q=",D6,",",D7,")")</f>
@@ -7265,13 +7274,13 @@
         <v>[:globe_with_meridians:](http://maps.google.com/maps?q=4.403117,-74.143296)</v>
       </c>
       <c r="J5" s="105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="111"/>
       <c r="C6" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" s="102">
         <v>5.1359240000000002</v>
@@ -7296,7 +7305,7 @@
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="111"/>
       <c r="C7" s="102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="102">
         <v>-73.969662999999997</v>
@@ -7321,7 +7330,7 @@
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="111"/>
       <c r="C8" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="15" t="str">
         <f t="shared" ref="D8:I8" si="2">_xlfn.CONCAT("BC Upstream ",D3)</f>
@@ -7352,7 +7361,7 @@
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="112"/>
       <c r="C9" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="15">
         <v>9.2744470000000003</v>
@@ -7380,7 +7389,7 @@
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="112"/>
       <c r="C10" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="21">
         <v>117</v>
@@ -7408,7 +7417,7 @@
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="112"/>
       <c r="C11" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="10">
         <v>60</v>
@@ -7438,7 +7447,7 @@
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="112"/>
       <c r="C12" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="104">
         <f>(COUNT(B19:B978))*(D11/60)</f>
@@ -7499,7 +7508,7 @@
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="113"/>
       <c r="C14" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="20">
         <v>1.8</v>
@@ -7537,7 +7546,7 @@
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="62"/>
       <c r="C16" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="63">
         <f>(SUM(D20:D25)/1000000)*$D$11*60</f>
@@ -7568,7 +7577,7 @@
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="62"/>
       <c r="C17" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="63">
         <f>MAX(D19:D978)</f>
@@ -7598,10 +7607,10 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="13" t="str">
         <f t="shared" ref="D18:I18" si="10">_xlfn.CONCAT("Flow ", D3)</f>
@@ -7628,7 +7637,7 @@
         <v>Flow La Regadera</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
@@ -38410,13 +38419,13 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="70"/>
       <c r="C3" s="73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="77">
         <v>5</v>
@@ -38428,7 +38437,7 @@
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="71"/>
       <c r="C4" s="72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="15">
         <v>60</v>
@@ -38439,16 +38448,16 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="76" t="s">
         <v>99</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
@@ -44362,8 +44371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFFC76D-3F7C-4E88-8950-245E9C1A4FDE}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -44382,97 +44391,101 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="65" t="s">
-        <v>97</v>
-      </c>
       <c r="D3" s="66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="G4" s="68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2">
         <v>1E-4</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="G5" s="68"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
         <v>219</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G7" s="68"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="82">
         <f>C4*C6/C7</f>
-        <v>1.3698630136986301</v>
-      </c>
-      <c r="D8" s="80"/>
+        <v>13.698630136986301</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>154</v>
+      </c>
       <c r="G8" s="81"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="6">
         <f>C5*C6/C7</f>
-        <v>2.7397260273972603E-5</v>
+        <v>1.3698630136986302E-5</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="G9" s="69"/>
     </row>
@@ -44504,21 +44517,21 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>133</v>
-      </c>
       <c r="D3" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="23" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
@@ -44527,13 +44540,13 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="88" t="str">
         <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|")</f>
@@ -44545,10 +44558,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="23" t="str">
         <f t="shared" ref="F5:F23" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
@@ -44560,10 +44573,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="23" t="str">
         <f t="shared" si="0"/>
@@ -44575,10 +44588,10 @@
         <v>21</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="23" t="str">
         <f t="shared" si="0"/>
@@ -44590,10 +44603,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="23" t="str">
         <f t="shared" si="0"/>
@@ -44605,10 +44618,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="23" t="str">
         <f t="shared" si="0"/>
@@ -44620,10 +44633,10 @@
         <v>24</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="23" t="str">
         <f t="shared" si="0"/>
@@ -44635,10 +44648,10 @@
         <v>31</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="23" t="str">
         <f t="shared" si="0"/>
@@ -44650,10 +44663,10 @@
         <v>41</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="23" t="str">
         <f t="shared" si="0"/>
@@ -44665,10 +44678,10 @@
         <v>42</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="23" t="str">
         <f t="shared" si="0"/>
@@ -44680,10 +44693,10 @@
         <v>43</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="23" t="str">
         <f t="shared" si="0"/>
@@ -44695,10 +44708,10 @@
         <v>51</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="23" t="str">
         <f t="shared" si="0"/>
@@ -44710,10 +44723,10 @@
         <v>52</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="23" t="str">
         <f t="shared" si="0"/>
@@ -44725,10 +44738,10 @@
         <v>71</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="23" t="str">
         <f t="shared" si="0"/>
@@ -44740,10 +44753,10 @@
         <v>72</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="23" t="str">
         <f t="shared" si="0"/>
@@ -44755,10 +44768,10 @@
         <v>73</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="23" t="str">
         <f t="shared" si="0"/>
@@ -44770,10 +44783,10 @@
         <v>74</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="23" t="str">
         <f t="shared" si="0"/>
@@ -44785,10 +44798,10 @@
         <v>81</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="23" t="str">
         <f t="shared" si="0"/>
@@ -44800,10 +44813,10 @@
         <v>82</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="23" t="str">
         <f t="shared" si="0"/>
@@ -44815,10 +44828,10 @@
         <v>90</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="23" t="str">
         <f t="shared" si="0"/>
@@ -44827,13 +44840,13 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="23"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F25" s="23"/>
     </row>
@@ -45103,24 +45116,24 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" s="23" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
@@ -45129,16 +45142,16 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G4" s="88" t="str">
         <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|",E4,"|")</f>
@@ -45147,10 +45160,10 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" s="38">
         <v>6.6000000000000003E-2</v>
@@ -45165,10 +45178,10 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="38">
         <v>3.5000000000000003E-2</v>
@@ -45183,10 +45196,10 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="38">
         <v>0.03</v>
@@ -45201,10 +45214,10 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="38">
         <v>0.06</v>
@@ -45219,10 +45232,10 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="38">
         <v>0.1</v>
@@ -45237,10 +45250,10 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="38">
         <v>0.15</v>
@@ -45255,10 +45268,10 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="38">
         <v>0.02</v>
@@ -45273,10 +45286,10 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="39">
         <v>0.1</v>
@@ -45291,10 +45304,10 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="39">
         <v>0.1</v>
@@ -45309,10 +45322,10 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="39">
         <v>0.1</v>
@@ -45327,10 +45340,10 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" s="39">
         <v>0.06</v>
@@ -45345,10 +45358,10 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="39">
         <v>0.04</v>
@@ -45363,10 +45376,10 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="39">
         <v>0.06</v>
@@ -45381,10 +45394,10 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="39">
         <v>0.05</v>
@@ -45399,10 +45412,10 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" s="39">
         <v>0.12</v>
@@ -45417,10 +45430,10 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D20" s="39">
         <v>0.1</v>
@@ -45442,7 +45455,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="84"/>
       <c r="D22" s="30"/>
@@ -45730,70 +45743,70 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B1" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B2" s="93"/>
       <c r="C2" s="91"/>
       <c r="D2" s="114" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="115"/>
       <c r="F2" s="116"/>
       <c r="G2" s="115" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2" s="115"/>
       <c r="I2" s="116"/>
       <c r="J2" s="117" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K2" s="115"/>
       <c r="L2" s="116"/>
       <c r="M2" s="99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O2" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B3" s="83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="43" t="s">
+      <c r="G3" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="I3" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="43" t="s">
+      <c r="J3" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="L3" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>85</v>
-      </c>
       <c r="M3" s="100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O3" s="23" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",J3," | ",K3," | ",L3," | ",M3," |")</f>
@@ -45802,10 +45815,10 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B4" s="94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="54"/>
       <c r="E4" s="42"/>
@@ -45814,16 +45827,16 @@
       <c r="H4" s="42"/>
       <c r="I4" s="43"/>
       <c r="J4" s="96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K4" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L4" s="98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M4" s="101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O4" s="23" t="str">
         <f t="shared" ref="O4:O11" si="0">_xlfn.CONCAT("| ",B4," | ",C4," | ",J4," | ",K4," | ",L4," | ",M4," |")</f>
@@ -45832,10 +45845,10 @@
     </row>
     <row r="5" spans="2:15" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B5" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="57">
         <v>0.3</v>
@@ -45872,7 +45885,7 @@
         <v>11.43</v>
       </c>
       <c r="M5" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O5" s="23" t="str">
         <f t="shared" si="0"/>
@@ -45881,10 +45894,10 @@
     </row>
     <row r="6" spans="2:15" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B6" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="57">
         <v>0.15</v>
@@ -45921,7 +45934,7 @@
         <v>7.6199999999999992</v>
       </c>
       <c r="M6" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O6" s="23" t="str">
         <f t="shared" si="0"/>
@@ -45930,10 +45943,10 @@
     </row>
     <row r="7" spans="2:15" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B7" s="32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="57">
         <v>0.05</v>
@@ -45970,7 +45983,7 @@
         <v>3.8099999999999996</v>
       </c>
       <c r="M7" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O7" s="23" t="str">
         <f t="shared" si="0"/>
@@ -45979,10 +45992,10 @@
     </row>
     <row r="8" spans="2:15" ht="120" x14ac:dyDescent="0.4">
       <c r="B8" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="57">
         <v>0</v>
@@ -46019,7 +46032,7 @@
         <v>1.27</v>
       </c>
       <c r="M8" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O8" s="23" t="str">
         <f t="shared" si="0"/>
@@ -46028,10 +46041,10 @@
     </row>
     <row r="9" spans="2:15" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B9" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="55">
         <f>(D5+D$8)/2</f>
@@ -46070,7 +46083,7 @@
         <v>6.35</v>
       </c>
       <c r="M9" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O9" s="23" t="str">
         <f t="shared" si="0"/>
@@ -46079,10 +46092,10 @@
     </row>
     <row r="10" spans="2:15" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B10" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="55">
         <f>(D6+D$8)/2</f>
@@ -46121,7 +46134,7 @@
         <v>4.4449999999999994</v>
       </c>
       <c r="M10" s="48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O10" s="23" t="str">
         <f t="shared" si="0"/>
@@ -46130,10 +46143,10 @@
     </row>
     <row r="11" spans="2:15" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B11" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="56">
         <f>(D7+D$8)/2</f>
@@ -46179,25 +46192,25 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B12" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O12" s="23"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B13" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O13" s="23"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B14" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O14" s="23"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B15" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O15" s="23"/>
     </row>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.HydroBogota\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6AF269-F06B-4452-BEEE-36C3FE01E214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB2E6A6-AE42-4C8F-9EB7-91D57CDC0B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" activeTab="2" xr2:uid="{3E1898FA-83B9-434A-8B97-00E46467114B}"/>
   </bookViews>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.HydroBogota\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB2E6A6-AE42-4C8F-9EB7-91D57CDC0B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0105E2-9569-4F0E-BEF9-A2A537063E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" activeTab="2" xr2:uid="{3E1898FA-83B9-434A-8B97-00E46467114B}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{3E1898FA-83B9-434A-8B97-00E46467114B}"/>
   </bookViews>
   <sheets>
     <sheet name="FlowRain" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="158">
   <si>
     <t>Multiplier</t>
   </si>
@@ -631,6 +631,12 @@
   <si>
     <t>Courant number minimum</t>
   </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Hydrograph</t>
+  </si>
 </sst>
 </file>
 
@@ -639,7 +645,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1237,7 +1243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1405,9 +1411,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1529,6 +1532,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1553,7 +1557,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6586,7 +6589,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>7183265</xdr:colOff>
+      <xdr:colOff>7183266</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>206799</xdr:rowOff>
     </xdr:to>
@@ -7161,15 +7164,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1313E719-9DB2-4CD7-9082-8925C7754BE9}">
   <dimension ref="B2:J978"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L44" sqref="L44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.69140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.765625" style="8" customWidth="1"/>
     <col min="3" max="3" width="23.53515625" style="8" customWidth="1"/>
     <col min="4" max="6" width="20.3828125" style="8" customWidth="1"/>
     <col min="7" max="7" width="22.3046875" style="8" customWidth="1"/>
@@ -7216,117 +7219,117 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="110"/>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="102" t="str">
+      <c r="D4" s="101" t="str">
         <f>HYPERLINK((_xlfn.CONCAT("http://maps.google.com/maps?q=",D6,",",D7)),"Ver")</f>
         <v>Ver</v>
       </c>
-      <c r="E4" s="102" t="str">
+      <c r="E4" s="101" t="str">
         <f t="shared" ref="E4:I4" si="0">HYPERLINK((_xlfn.CONCAT("http://maps.google.com/maps?q=",E6,",",E7)),"Ver")</f>
         <v>Ver</v>
       </c>
-      <c r="F4" s="102" t="str">
+      <c r="F4" s="101" t="str">
         <f t="shared" si="0"/>
         <v>Ver</v>
       </c>
-      <c r="G4" s="102" t="str">
+      <c r="G4" s="101" t="str">
         <f t="shared" si="0"/>
         <v>Ver</v>
       </c>
-      <c r="H4" s="102" t="str">
+      <c r="H4" s="101" t="str">
         <f t="shared" si="0"/>
         <v>Ver</v>
       </c>
-      <c r="I4" s="102" t="str">
+      <c r="I4" s="101" t="str">
         <f t="shared" si="0"/>
         <v>Ver</v>
       </c>
-      <c r="J4" s="104"/>
+      <c r="J4" s="103"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="110"/>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="102" t="str">
+      <c r="D5" s="101" t="str">
         <f>_xlfn.CONCAT("[:globe_with_meridians:](","http://maps.google.com/maps?q=",D6,",",D7,")")</f>
         <v>[:globe_with_meridians:](http://maps.google.com/maps?q=5.135924,-73.969663)</v>
       </c>
-      <c r="E5" s="102" t="str">
+      <c r="E5" s="101" t="str">
         <f t="shared" ref="E5:I5" si="1">_xlfn.CONCAT("[:globe_with_meridians:](","http://maps.google.com/maps?q=",E6,",",E7,")")</f>
         <v>[:globe_with_meridians:](http://maps.google.com/maps?q=5.036403,-73.811914)</v>
       </c>
-      <c r="F5" s="102" t="str">
+      <c r="F5" s="101" t="str">
         <f t="shared" si="1"/>
         <v>[:globe_with_meridians:](http://maps.google.com/maps?q=5.083958,-73.72756)</v>
       </c>
-      <c r="G5" s="102" t="str">
+      <c r="G5" s="101" t="str">
         <f t="shared" si="1"/>
         <v>[:globe_with_meridians:](http://maps.google.com/maps?q=4.703225,-73.985746)</v>
       </c>
-      <c r="H5" s="102" t="str">
+      <c r="H5" s="101" t="str">
         <f t="shared" si="1"/>
         <v>[:globe_with_meridians:](http://maps.google.com/maps?q=4.384184,-74.167766)</v>
       </c>
-      <c r="I5" s="102" t="str">
+      <c r="I5" s="101" t="str">
         <f t="shared" si="1"/>
         <v>[:globe_with_meridians:](http://maps.google.com/maps?q=4.403117,-74.143296)</v>
       </c>
-      <c r="J5" s="104" t="s">
+      <c r="J5" s="103" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="110"/>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="101">
+      <c r="D6" s="100">
         <v>5.1359240000000002</v>
       </c>
-      <c r="E6" s="101">
+      <c r="E6" s="100">
         <v>5.036403</v>
       </c>
-      <c r="F6" s="101">
+      <c r="F6" s="100">
         <v>5.083958</v>
       </c>
-      <c r="G6" s="101">
+      <c r="G6" s="100">
         <v>4.7032249999999998</v>
       </c>
-      <c r="H6" s="101">
+      <c r="H6" s="100">
         <v>4.3841840000000003</v>
       </c>
-      <c r="I6" s="101">
+      <c r="I6" s="100">
         <v>4.4031169999999999</v>
       </c>
-      <c r="J6" s="105"/>
+      <c r="J6" s="104"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="110"/>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="101">
+      <c r="D7" s="100">
         <v>-73.969662999999997</v>
       </c>
-      <c r="E7" s="101">
+      <c r="E7" s="100">
         <v>-73.811914000000002</v>
       </c>
-      <c r="F7" s="101">
+      <c r="F7" s="100">
         <v>-73.727559999999997</v>
       </c>
-      <c r="G7" s="101">
+      <c r="G7" s="100">
         <v>-73.985746000000006</v>
       </c>
-      <c r="H7" s="101">
+      <c r="H7" s="100">
         <v>-74.167766</v>
       </c>
-      <c r="I7" s="101">
+      <c r="I7" s="100">
         <v>-74.143296000000007</v>
       </c>
-      <c r="J7" s="105"/>
+      <c r="J7" s="104"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="110"/>
@@ -7410,7 +7413,7 @@
       <c r="I10" s="20">
         <v>3.3</v>
       </c>
-      <c r="J10" s="106">
+      <c r="J10" s="105">
         <f t="shared" ref="J10" si="3">SUM(D10:I10)</f>
         <v>981.6</v>
       </c>
@@ -7443,14 +7446,14 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="J11" s="107"/>
+      <c r="J11" s="106"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="111"/>
       <c r="C12" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="103">
+      <c r="D12" s="102">
         <f>(COUNT(B19:B978))*(D11/60)</f>
         <v>8</v>
       </c>
@@ -7474,7 +7477,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="J12" s="107"/>
+      <c r="J12" s="106"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="111"/>
@@ -7530,7 +7533,7 @@
         <f>1.2-H14</f>
         <v>0.52999999999999992</v>
       </c>
-      <c r="J14" s="108">
+      <c r="J14" s="107">
         <f t="shared" ref="J14" si="5">SUM(D14:I14)</f>
         <v>10.7</v>
       </c>
@@ -7545,62 +7548,66 @@
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="61"/>
+      <c r="B16" s="12" t="s">
+        <v>156</v>
+      </c>
       <c r="C16" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="61">
         <f>(SUM(D20:D25)/1000000)*$D$11*60</f>
         <v>117.0000000000001</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="61">
         <f t="shared" ref="E16:I16" si="6">(SUM(E20:E25)/1000000)*$D$11*60</f>
         <v>689.50000000000068</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16" s="61">
         <f t="shared" si="6"/>
         <v>90.10000000000008</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="61">
         <f t="shared" si="6"/>
         <v>75.000000000000057</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="61">
         <f t="shared" si="6"/>
         <v>6.7000000000000064</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="61">
         <f t="shared" si="6"/>
         <v>3.3000000000000029</v>
       </c>
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="61"/>
+      <c r="B17" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="C17" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="62">
+      <c r="D17" s="61">
         <f>MAX(D19:D978)</f>
         <v>9285.7142857142935</v>
       </c>
-      <c r="E17" s="62">
+      <c r="E17" s="61">
         <f t="shared" ref="E17:F17" si="7">MAX(E19:E978)</f>
         <v>54722.22222222227</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="61">
         <f t="shared" si="7"/>
         <v>7150.7936507936574</v>
       </c>
-      <c r="G17" s="62">
+      <c r="G17" s="61">
         <f t="shared" ref="G17:H17" si="8">MAX(G19:G978)</f>
         <v>5952.3809523809578</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="61">
         <f t="shared" si="8"/>
         <v>531.74603174603226</v>
       </c>
-      <c r="I17" s="62">
+      <c r="I17" s="61">
         <f t="shared" ref="I17" si="9">MAX(I19:I978)</f>
         <v>261.90476190476215</v>
       </c>
@@ -38424,20 +38431,20 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="69"/>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="76">
+      <c r="D3" s="75">
         <v>5</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="76">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="70"/>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="14">
@@ -38448,16 +38455,16 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="74" t="s">
         <v>99</v>
       </c>
     </row>
@@ -44372,8 +44379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFFC76D-3F7C-4E88-8950-245E9C1A4FDE}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -44399,16 +44406,16 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="65" t="s">
         <v>7</v>
       </c>
     </row>
@@ -44422,7 +44429,7 @@
       <c r="D4" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="66" t="s">
         <v>8</v>
       </c>
     </row>
@@ -44436,7 +44443,7 @@
       <c r="D5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="67"/>
+      <c r="G5" s="66"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="3" t="s">
@@ -44449,7 +44456,7 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="66" t="s">
         <v>9</v>
       </c>
     </row>
@@ -44463,33 +44470,33 @@
       <c r="D7" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="67"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="80">
         <f>C4*C6/C7</f>
         <v>499.99999999999994</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="G8" s="80"/>
+      <c r="G8" s="79"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="108">
         <f>C5*C6/C7</f>
         <v>8.2191780821917818E-3</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="68"/>
+      <c r="G9" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44541,16 +44548,16 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="87" t="str">
+      <c r="F4" s="86" t="str">
         <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|")</f>
         <v>|---|---|---|</v>
       </c>
@@ -45143,19 +45150,19 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="87" t="str">
+      <c r="G4" s="86" t="str">
         <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|",E4,"|")</f>
         <v>|---|---|---|---|</v>
       </c>
@@ -45456,10 +45463,10 @@
       <c r="G21" s="22"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="83"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="29"/>
       <c r="G22" s="22"/>
     </row>
@@ -45749,8 +45756,8 @@
       </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B2" s="92"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="89"/>
       <c r="D2" s="113" t="s">
         <v>66</v>
       </c>
@@ -45766,7 +45773,7 @@
       </c>
       <c r="K2" s="114"/>
       <c r="L2" s="115"/>
-      <c r="M2" s="98" t="s">
+      <c r="M2" s="97" t="s">
         <v>141</v>
       </c>
       <c r="O2" s="22" t="s">
@@ -45774,10 +45781,10 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="34.299999999999997" x14ac:dyDescent="0.4">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="90" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="53" t="s">
@@ -45807,7 +45814,7 @@
       <c r="L3" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="99" t="s">
+      <c r="M3" s="98" t="s">
         <v>140</v>
       </c>
       <c r="O3" s="22" t="str">
@@ -45816,10 +45823,10 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="93" t="s">
         <v>107</v>
       </c>
       <c r="D4" s="53"/>
@@ -45828,16 +45835,16 @@
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
       <c r="I4" s="42"/>
-      <c r="J4" s="95" t="s">
+      <c r="J4" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="L4" s="97" t="s">
+      <c r="L4" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="100" t="s">
+      <c r="M4" s="99" t="s">
         <v>107</v>
       </c>
       <c r="O4" s="22" t="str">

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.HydroBogota\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0105E2-9569-4F0E-BEF9-A2A537063E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855357AE-28A7-4689-9398-2AF7AAB5E69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{3E1898FA-83B9-434A-8B97-00E46467114B}"/>
   </bookViews>
@@ -1616,8 +1616,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34146114115021869"/>
-          <c:y val="8.9486111111111103E-3"/>
+          <c:x val="0.32970185185185186"/>
+          <c:y val="8.9486135968371103E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1653,9 +1653,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21162482206557712"/>
+          <c:x val="0.15674830246913579"/>
           <c:y val="0.1012189170052547"/>
-          <c:w val="0.64554851728375839"/>
+          <c:w val="0.80233858024691362"/>
           <c:h val="0.75284770912436361"/>
         </c:manualLayout>
       </c:layout>
@@ -2685,8 +2685,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2987412719037858"/>
-          <c:y val="3.0272500000000001E-2"/>
+          <c:x val="0.22428179955080504"/>
+          <c:y val="3.3800287166746434E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2722,9 +2722,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22052428750709485"/>
-          <c:y val="0.13251666666666667"/>
-          <c:w val="0.64398750891323187"/>
+          <c:x val="9.1199812138570022E-2"/>
+          <c:y val="0.13251670347686206"/>
+          <c:w val="0.85756875896511431"/>
           <c:h val="0.69332777777777777"/>
         </c:manualLayout>
       </c:layout>
@@ -6545,13 +6545,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>63392</xdr:colOff>
+      <xdr:colOff>63391</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>191856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>67935</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6543391</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>90713</xdr:rowOff>
     </xdr:to>
@@ -6589,7 +6589,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>7183266</xdr:colOff>
+      <xdr:colOff>6462132</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>206799</xdr:rowOff>
     </xdr:to>
@@ -7164,9 +7164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1313E719-9DB2-4CD7-9082-8925C7754BE9}">
   <dimension ref="B2:J978"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.HydroBogota\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F04417F-1989-4BA9-8F78-943AB581BCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E40A218-D99A-4E8B-B829-70C5415C4524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="724" firstSheet="1" activeTab="6" xr2:uid="{3E1898FA-83B9-434A-8B97-00E46467114B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="724" firstSheet="2" activeTab="7" xr2:uid="{3E1898FA-83B9-434A-8B97-00E46467114B}"/>
   </bookViews>
   <sheets>
     <sheet name="FlowRain" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="ManningNLCD" sheetId="3" r:id="rId4"/>
     <sheet name="ManningPercentImpervious" sheetId="5" r:id="rId5"/>
     <sheet name="HydrologicSoilGroup" sheetId="4" r:id="rId6"/>
-    <sheet name="Counties" sheetId="7" r:id="rId7"/>
+    <sheet name="Countie" sheetId="7" r:id="rId7"/>
+    <sheet name="EnvironmentAgency" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -163,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="226">
   <si>
     <t>Multiplier</t>
   </si>
@@ -805,6 +806,42 @@
   </si>
   <si>
     <t>Municipios con influencia geográfica sobre la cuenca del Río Bogota</t>
+  </si>
+  <si>
+    <t>Autoridades ambientales con influencia geográfica sobre la cuenca del Río Bogota</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>Autoridad ambiental</t>
+  </si>
+  <si>
+    <t>Área AA. (km²)</t>
+  </si>
+  <si>
+    <t>% AA.</t>
+  </si>
+  <si>
+    <t>(n/a)</t>
+  </si>
+  <si>
+    <t>(área no coincidente)</t>
+  </si>
+  <si>
+    <t>CORPORACION AUTONOMA REGIONAL DE CUNDINAMARCA</t>
+  </si>
+  <si>
+    <t>CORPOGUAVIO</t>
+  </si>
+  <si>
+    <t>CORPORACION AUTONOMA REGIONAL DEL GUAVIO</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>SECRETARIA DISTRITAL DE AMBIENTE BOGOTÁ</t>
   </si>
 </sst>
 </file>
@@ -1702,6 +1739,48 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1725,48 +1804,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7400,7 +7437,7 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="123" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -7429,7 +7466,7 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B4" s="110"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="100" t="s">
         <v>146</v>
       </c>
@@ -7460,7 +7497,7 @@
       <c r="J4" s="103"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B5" s="110"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="100" t="s">
         <v>149</v>
       </c>
@@ -7493,7 +7530,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B6" s="110"/>
+      <c r="B6" s="124"/>
       <c r="C6" s="100" t="s">
         <v>147</v>
       </c>
@@ -7518,7 +7555,7 @@
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B7" s="110"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="100" t="s">
         <v>148</v>
       </c>
@@ -7543,7 +7580,7 @@
       <c r="J7" s="104"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B8" s="110"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="13" t="s">
         <v>142</v>
       </c>
@@ -7574,7 +7611,7 @@
       <c r="J8" s="59"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B9" s="111"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="13" t="s">
         <v>10</v>
       </c>
@@ -7602,7 +7639,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="111"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -7630,7 +7667,7 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B11" s="111"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="13" t="s">
         <v>92</v>
       </c>
@@ -7660,7 +7697,7 @@
       <c r="J11" s="106"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B12" s="111"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="13" t="s">
         <v>94</v>
       </c>
@@ -7691,7 +7728,7 @@
       <c r="J12" s="106"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B13" s="111"/>
+      <c r="B13" s="125"/>
       <c r="C13" s="13" t="s">
         <v>0</v>
       </c>
@@ -7721,7 +7758,7 @@
       <c r="J13" s="59"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B14" s="112"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="18" t="s">
         <v>11</v>
       </c>
@@ -45969,21 +46006,21 @@
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" s="91"/>
       <c r="C2" s="89"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="114" t="s">
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="116" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="114"/>
-      <c r="L2" s="115"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
       <c r="M2" s="97" t="s">
         <v>141</v>
       </c>
@@ -46723,22 +46760,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4DED94-F167-49EE-B01F-647CBC1CD593}">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="120" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" style="112" customWidth="1"/>
     <col min="2" max="2" width="11.59765625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="25.19921875" style="120" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.19921875" style="112" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.46484375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.06640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.59765625" style="120" customWidth="1"/>
-    <col min="9" max="9" width="73.265625" style="120" customWidth="1"/>
-    <col min="10" max="16384" width="9.06640625" style="120"/>
+    <col min="8" max="8" width="2.59765625" style="112" customWidth="1"/>
+    <col min="9" max="9" width="73.265625" style="112" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="112"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
@@ -46747,50 +46784,50 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="33" x14ac:dyDescent="0.45">
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="121" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="109" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="110" t="s">
         <v>208</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="110" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="118" t="s">
+      <c r="F3" s="110" t="s">
         <v>209</v>
       </c>
-      <c r="G3" s="119" t="s">
+      <c r="G3" s="111" t="s">
         <v>211</v>
       </c>
-      <c r="I3" s="120" t="str">
+      <c r="I3" s="112" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",G3," |")</f>
         <v>| Código | Nombre | Área en cuenca (km²) | % Cuenca | Área Mpio. (km²) | % Mpio. |</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="127" t="s">
+      <c r="D4" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="127" t="s">
+      <c r="E4" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="127" t="s">
+      <c r="F4" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="128" t="s">
+      <c r="G4" s="120" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="120" t="str">
-        <f t="shared" ref="I4:I54" si="0">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ",F4," | ",G4," |")</f>
+      <c r="I4" s="112" t="str">
+        <f t="shared" ref="I4:I53" si="0">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ",F4," | ",G4," |")</f>
         <v>| --- | --- | --- | --- | --- | --- |</v>
       </c>
     </row>
@@ -46798,22 +46835,22 @@
       <c r="B5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="122">
+      <c r="D5" s="114">
         <v>13.17</v>
       </c>
-      <c r="E5" s="122">
+      <c r="E5" s="114">
         <v>0.22</v>
       </c>
-      <c r="F5" s="122">
+      <c r="F5" s="114">
         <v>13.17</v>
       </c>
-      <c r="G5" s="123">
+      <c r="G5" s="115">
         <v>100</v>
       </c>
-      <c r="I5" s="120" t="str">
+      <c r="I5" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| n/a | (área no coicidente) | 13.17 | 0.22 | 13.17 | 100 |</v>
       </c>
@@ -46822,22 +46859,22 @@
       <c r="B6" s="31">
         <v>25001</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="122">
+      <c r="D6" s="114">
         <v>71.02</v>
       </c>
-      <c r="E6" s="122">
-        <v>1.2</v>
-      </c>
-      <c r="F6" s="122">
+      <c r="E6" s="114">
+        <v>1.2</v>
+      </c>
+      <c r="F6" s="114">
         <v>85.95</v>
       </c>
-      <c r="G6" s="123">
+      <c r="G6" s="115">
         <v>82.63</v>
       </c>
-      <c r="I6" s="120" t="str">
+      <c r="I6" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25001 | Agua de Dios | 71.02 | 1.2 | 85.95 | 82.63 |</v>
       </c>
@@ -46846,22 +46883,22 @@
       <c r="B7" s="31">
         <v>25035</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="122">
+      <c r="D7" s="114">
         <v>123.39</v>
       </c>
-      <c r="E7" s="122">
+      <c r="E7" s="114">
         <v>2.08</v>
       </c>
-      <c r="F7" s="122">
+      <c r="F7" s="114">
         <v>123.95</v>
       </c>
-      <c r="G7" s="123">
+      <c r="G7" s="115">
         <v>99.55</v>
       </c>
-      <c r="I7" s="120" t="str">
+      <c r="I7" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25035 | Anapoima | 123.39 | 2.08 | 123.95 | 99.55 |</v>
       </c>
@@ -46870,22 +46907,22 @@
       <c r="B8" s="31">
         <v>25040</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="122">
+      <c r="D8" s="114">
         <v>110.28</v>
       </c>
-      <c r="E8" s="122">
+      <c r="E8" s="114">
         <v>1.86</v>
       </c>
-      <c r="F8" s="122">
+      <c r="F8" s="114">
         <v>120.95</v>
       </c>
-      <c r="G8" s="123">
+      <c r="G8" s="115">
         <v>91.18</v>
       </c>
-      <c r="I8" s="120" t="str">
+      <c r="I8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25040 | Anolaima | 110.28 | 1.86 | 120.95 | 91.18 |</v>
       </c>
@@ -46894,22 +46931,22 @@
       <c r="B9" s="31">
         <v>25599</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="122">
+      <c r="D9" s="114">
         <v>121.92</v>
       </c>
-      <c r="E9" s="122">
+      <c r="E9" s="114">
         <v>2.06</v>
       </c>
-      <c r="F9" s="122">
+      <c r="F9" s="114">
         <v>121.97</v>
       </c>
-      <c r="G9" s="123">
+      <c r="G9" s="115">
         <v>99.95</v>
       </c>
-      <c r="I9" s="120" t="str">
+      <c r="I9" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25599 | Apulo | 121.92 | 2.06 | 121.97 | 99.95 |</v>
       </c>
@@ -46918,22 +46955,22 @@
       <c r="B10" s="31">
         <v>11001</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="122">
+      <c r="D10" s="114">
         <v>845.34</v>
       </c>
-      <c r="E10" s="122">
+      <c r="E10" s="114">
         <v>14.25</v>
       </c>
-      <c r="F10" s="122">
+      <c r="F10" s="114">
         <v>1620.07</v>
       </c>
-      <c r="G10" s="123">
+      <c r="G10" s="115">
         <v>52.18</v>
       </c>
-      <c r="I10" s="120" t="str">
+      <c r="I10" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 11001 | Bogotá D.C. | 845.34 | 14.25 | 1620.07 | 52.18 |</v>
       </c>
@@ -46942,22 +46979,22 @@
       <c r="B11" s="31">
         <v>25099</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="122">
+      <c r="D11" s="114">
         <v>102.32</v>
       </c>
-      <c r="E11" s="122">
+      <c r="E11" s="114">
         <v>1.72</v>
       </c>
-      <c r="F11" s="122">
+      <c r="F11" s="114">
         <v>102.32</v>
       </c>
-      <c r="G11" s="123">
+      <c r="G11" s="115">
         <v>100</v>
       </c>
-      <c r="I11" s="120" t="str">
+      <c r="I11" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25099 | Bojacá | 102.32 | 1.72 | 102.32 | 100 |</v>
       </c>
@@ -46966,22 +47003,22 @@
       <c r="B12" s="31">
         <v>25123</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="122">
+      <c r="D12" s="114">
         <v>53.45</v>
       </c>
-      <c r="E12" s="122">
+      <c r="E12" s="114">
         <v>0.9</v>
       </c>
-      <c r="F12" s="122">
+      <c r="F12" s="114">
         <v>53.45</v>
       </c>
-      <c r="G12" s="123">
+      <c r="G12" s="115">
         <v>100</v>
       </c>
-      <c r="I12" s="120" t="str">
+      <c r="I12" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25123 | Cachipay | 53.45 | 0.9 | 53.45 | 100 |</v>
       </c>
@@ -46990,22 +47027,22 @@
       <c r="B13" s="31">
         <v>25126</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="113" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="122">
+      <c r="D13" s="114">
         <v>51.32</v>
       </c>
-      <c r="E13" s="122">
+      <c r="E13" s="114">
         <v>0.87</v>
       </c>
-      <c r="F13" s="122">
+      <c r="F13" s="114">
         <v>51.32</v>
       </c>
-      <c r="G13" s="123">
+      <c r="G13" s="115">
         <v>100</v>
       </c>
-      <c r="I13" s="120" t="str">
+      <c r="I13" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25126 | Cajicá | 51.32 | 0.87 | 51.32 | 100 |</v>
       </c>
@@ -47014,22 +47051,22 @@
       <c r="B14" s="31">
         <v>25175</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="113" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="122">
+      <c r="D14" s="114">
         <v>80.13</v>
       </c>
-      <c r="E14" s="122">
+      <c r="E14" s="114">
         <v>1.35</v>
       </c>
-      <c r="F14" s="122">
+      <c r="F14" s="114">
         <v>80.13</v>
       </c>
-      <c r="G14" s="123">
+      <c r="G14" s="115">
         <v>100</v>
       </c>
-      <c r="I14" s="120" t="str">
+      <c r="I14" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25175 | Chía | 80.13 | 1.35 | 80.13 | 100 |</v>
       </c>
@@ -47038,22 +47075,22 @@
       <c r="B15" s="31">
         <v>25178</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="113" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="122">
+      <c r="D15" s="114">
         <v>5.49</v>
       </c>
-      <c r="E15" s="122">
+      <c r="E15" s="114">
         <v>0.09</v>
       </c>
-      <c r="F15" s="122">
+      <c r="F15" s="114">
         <v>150.55000000000001</v>
       </c>
-      <c r="G15" s="123">
+      <c r="G15" s="115">
         <v>3.65</v>
       </c>
-      <c r="I15" s="120" t="str">
+      <c r="I15" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25178 | Chipaque | 5.49 | 0.09 | 150.55 | 3.65 |</v>
       </c>
@@ -47062,22 +47099,22 @@
       <c r="B16" s="31">
         <v>25183</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="113" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="122">
+      <c r="D16" s="114">
         <v>254.51</v>
       </c>
-      <c r="E16" s="122">
+      <c r="E16" s="114">
         <v>4.29</v>
       </c>
-      <c r="F16" s="122">
+      <c r="F16" s="114">
         <v>300.08999999999997</v>
       </c>
-      <c r="G16" s="123">
+      <c r="G16" s="115">
         <v>84.81</v>
       </c>
-      <c r="I16" s="120" t="str">
+      <c r="I16" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25183 | Chocontá | 254.51 | 4.29 | 300.09 | 84.81 |</v>
       </c>
@@ -47086,22 +47123,22 @@
       <c r="B17" s="31">
         <v>25200</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="113" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="122">
+      <c r="D17" s="114">
         <v>132.75</v>
       </c>
-      <c r="E17" s="122">
+      <c r="E17" s="114">
         <v>2.2400000000000002</v>
       </c>
-      <c r="F17" s="122">
+      <c r="F17" s="114">
         <v>132.88</v>
       </c>
-      <c r="G17" s="123">
+      <c r="G17" s="115">
         <v>99.91</v>
       </c>
-      <c r="I17" s="120" t="str">
+      <c r="I17" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25200 | Cogua | 132.75 | 2.24 | 132.88 | 99.91 |</v>
       </c>
@@ -47110,22 +47147,22 @@
       <c r="B18" s="31">
         <v>25214</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="122">
+      <c r="D18" s="114">
         <v>53.74</v>
       </c>
-      <c r="E18" s="122">
+      <c r="E18" s="114">
         <v>0.91</v>
       </c>
-      <c r="F18" s="122">
+      <c r="F18" s="114">
         <v>53.74</v>
       </c>
-      <c r="G18" s="123">
+      <c r="G18" s="115">
         <v>100</v>
       </c>
-      <c r="I18" s="120" t="str">
+      <c r="I18" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25214 | Cota | 53.74 | 0.91 | 53.74 | 100 |</v>
       </c>
@@ -47134,22 +47171,22 @@
       <c r="B19" s="31">
         <v>25224</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="113" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="122">
+      <c r="D19" s="114">
         <v>24.13</v>
       </c>
-      <c r="E19" s="122">
+      <c r="E19" s="114">
         <v>0.41</v>
       </c>
-      <c r="F19" s="122">
+      <c r="F19" s="114">
         <v>109.84</v>
       </c>
-      <c r="G19" s="123">
+      <c r="G19" s="115">
         <v>21.97</v>
       </c>
-      <c r="I19" s="120" t="str">
+      <c r="I19" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25224 | Cucunubá | 24.13 | 0.41 | 109.84 | 21.97 |</v>
       </c>
@@ -47158,22 +47195,22 @@
       <c r="B20" s="31">
         <v>25245</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="113" t="s">
         <v>173</v>
       </c>
-      <c r="D20" s="122">
+      <c r="D20" s="114">
         <v>118.27</v>
       </c>
-      <c r="E20" s="122">
+      <c r="E20" s="114">
         <v>1.99</v>
       </c>
-      <c r="F20" s="122">
+      <c r="F20" s="114">
         <v>118.27</v>
       </c>
-      <c r="G20" s="123">
+      <c r="G20" s="115">
         <v>100</v>
       </c>
-      <c r="I20" s="120" t="str">
+      <c r="I20" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25245 | El Colegio | 118.27 | 1.99 | 118.27 | 100 |</v>
       </c>
@@ -47182,22 +47219,22 @@
       <c r="B21" s="31">
         <v>25260</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="113" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="122">
+      <c r="D21" s="114">
         <v>70.55</v>
       </c>
-      <c r="E21" s="122">
+      <c r="E21" s="114">
         <v>1.19</v>
       </c>
-      <c r="F21" s="122">
+      <c r="F21" s="114">
         <v>87.22</v>
       </c>
-      <c r="G21" s="123">
+      <c r="G21" s="115">
         <v>80.89</v>
       </c>
-      <c r="I21" s="120" t="str">
+      <c r="I21" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25260 | El Rosal | 70.55 | 1.19 | 87.22 | 80.89 |</v>
       </c>
@@ -47206,22 +47243,22 @@
       <c r="B22" s="31">
         <v>25269</v>
       </c>
-      <c r="C22" s="121" t="s">
+      <c r="C22" s="113" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="122">
+      <c r="D22" s="114">
         <v>154.97999999999999</v>
       </c>
-      <c r="E22" s="122">
+      <c r="E22" s="114">
         <v>2.61</v>
       </c>
-      <c r="F22" s="122">
+      <c r="F22" s="114">
         <v>158.05000000000001</v>
       </c>
-      <c r="G22" s="123">
+      <c r="G22" s="115">
         <v>98.06</v>
       </c>
-      <c r="I22" s="120" t="str">
+      <c r="I22" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25269 | Facatativá | 154.98 | 2.61 | 158.05 | 98.06 |</v>
       </c>
@@ -47230,22 +47267,22 @@
       <c r="B23" s="31">
         <v>25286</v>
       </c>
-      <c r="C23" s="121" t="s">
+      <c r="C23" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="122">
+      <c r="D23" s="114">
         <v>70.05</v>
       </c>
-      <c r="E23" s="122">
+      <c r="E23" s="114">
         <v>1.18</v>
       </c>
-      <c r="F23" s="122">
+      <c r="F23" s="114">
         <v>70.05</v>
       </c>
-      <c r="G23" s="123">
+      <c r="G23" s="115">
         <v>100</v>
       </c>
-      <c r="I23" s="120" t="str">
+      <c r="I23" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25286 | Funza | 70.05 | 1.18 | 70.05 | 100 |</v>
       </c>
@@ -47254,22 +47291,22 @@
       <c r="B24" s="31">
         <v>25295</v>
       </c>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="113" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="122">
+      <c r="D24" s="114">
         <v>42.92</v>
       </c>
-      <c r="E24" s="122">
+      <c r="E24" s="114">
         <v>0.72</v>
       </c>
-      <c r="F24" s="122">
+      <c r="F24" s="114">
         <v>42.92</v>
       </c>
-      <c r="G24" s="123">
+      <c r="G24" s="115">
         <v>100</v>
       </c>
-      <c r="I24" s="120" t="str">
+      <c r="I24" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25295 | Gachancipá | 42.92 | 0.72 | 42.92 | 100 |</v>
       </c>
@@ -47278,22 +47315,22 @@
       <c r="B25" s="31">
         <v>25307</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="122">
+      <c r="D25" s="114">
         <v>74.84</v>
       </c>
-      <c r="E25" s="122">
+      <c r="E25" s="114">
         <v>1.26</v>
       </c>
-      <c r="F25" s="122">
+      <c r="F25" s="114">
         <v>130.33000000000001</v>
       </c>
-      <c r="G25" s="123">
+      <c r="G25" s="115">
         <v>57.42</v>
       </c>
-      <c r="I25" s="120" t="str">
+      <c r="I25" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25307 | Girardot | 74.84 | 1.26 | 130.33 | 57.42 |</v>
       </c>
@@ -47302,22 +47339,22 @@
       <c r="B26" s="31">
         <v>25312</v>
       </c>
-      <c r="C26" s="121" t="s">
+      <c r="C26" s="113" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="122">
+      <c r="D26" s="114">
         <v>11.46</v>
       </c>
-      <c r="E26" s="122">
+      <c r="E26" s="114">
         <v>0.19</v>
       </c>
-      <c r="F26" s="122">
+      <c r="F26" s="114">
         <v>60.7</v>
       </c>
-      <c r="G26" s="123">
+      <c r="G26" s="115">
         <v>18.88</v>
       </c>
-      <c r="I26" s="120" t="str">
+      <c r="I26" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25312 | Granada | 11.46 | 0.19 | 60.7 | 18.88 |</v>
       </c>
@@ -47326,22 +47363,22 @@
       <c r="B27" s="31">
         <v>25322</v>
       </c>
-      <c r="C27" s="121" t="s">
+      <c r="C27" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="122">
+      <c r="D27" s="114">
         <v>209.56</v>
       </c>
-      <c r="E27" s="122">
+      <c r="E27" s="114">
         <v>3.53</v>
       </c>
-      <c r="F27" s="122">
+      <c r="F27" s="114">
         <v>360.58</v>
       </c>
-      <c r="G27" s="123">
+      <c r="G27" s="115">
         <v>58.12</v>
       </c>
-      <c r="I27" s="120" t="str">
+      <c r="I27" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25322 | Guasca | 209.56 | 3.53 | 360.58 | 58.12 |</v>
       </c>
@@ -47350,22 +47387,22 @@
       <c r="B28" s="31">
         <v>25326</v>
       </c>
-      <c r="C28" s="121" t="s">
+      <c r="C28" s="113" t="s">
         <v>181</v>
       </c>
-      <c r="D28" s="122">
+      <c r="D28" s="114">
         <v>153.96</v>
       </c>
-      <c r="E28" s="122">
-        <v>2.6</v>
-      </c>
-      <c r="F28" s="122">
+      <c r="E28" s="114">
+        <v>2.6</v>
+      </c>
+      <c r="F28" s="114">
         <v>252.35</v>
       </c>
-      <c r="G28" s="123">
+      <c r="G28" s="115">
         <v>61.01</v>
       </c>
-      <c r="I28" s="120" t="str">
+      <c r="I28" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25326 | Guatavita | 153.96 | 2.6 | 252.35 | 61.01 |</v>
       </c>
@@ -47374,22 +47411,22 @@
       <c r="B29" s="31">
         <v>25377</v>
       </c>
-      <c r="C29" s="121" t="s">
+      <c r="C29" s="113" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="122">
+      <c r="D29" s="114">
         <v>189.19</v>
       </c>
-      <c r="E29" s="122">
+      <c r="E29" s="114">
         <v>3.19</v>
       </c>
-      <c r="F29" s="122">
+      <c r="F29" s="114">
         <v>326.77999999999997</v>
       </c>
-      <c r="G29" s="123">
+      <c r="G29" s="115">
         <v>57.89</v>
       </c>
-      <c r="I29" s="120" t="str">
+      <c r="I29" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25377 | La Calera | 189.19 | 3.19 | 326.78 | 57.89 |</v>
       </c>
@@ -47398,22 +47435,22 @@
       <c r="B30" s="31">
         <v>25386</v>
       </c>
-      <c r="C30" s="121" t="s">
+      <c r="C30" s="113" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="122">
+      <c r="D30" s="114">
         <v>148.09</v>
       </c>
-      <c r="E30" s="122">
+      <c r="E30" s="114">
         <v>2.5</v>
       </c>
-      <c r="F30" s="122">
+      <c r="F30" s="114">
         <v>148.27000000000001</v>
       </c>
-      <c r="G30" s="123">
+      <c r="G30" s="115">
         <v>99.88</v>
       </c>
-      <c r="I30" s="120" t="str">
+      <c r="I30" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25386 | La Mesa | 148.09 | 2.5 | 148.27 | 99.88 |</v>
       </c>
@@ -47422,22 +47459,22 @@
       <c r="B31" s="31">
         <v>25430</v>
       </c>
-      <c r="C31" s="121" t="s">
+      <c r="C31" s="113" t="s">
         <v>184</v>
       </c>
-      <c r="D31" s="122">
+      <c r="D31" s="114">
         <v>119.58</v>
       </c>
-      <c r="E31" s="122">
+      <c r="E31" s="114">
         <v>2.02</v>
       </c>
-      <c r="F31" s="122">
+      <c r="F31" s="114">
         <v>119.58</v>
       </c>
-      <c r="G31" s="123">
+      <c r="G31" s="115">
         <v>100</v>
       </c>
-      <c r="I31" s="120" t="str">
+      <c r="I31" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25430 | Madrid | 119.58 | 2.02 | 119.58 | 100 |</v>
       </c>
@@ -47446,22 +47483,22 @@
       <c r="B32" s="31">
         <v>25473</v>
       </c>
-      <c r="C32" s="121" t="s">
+      <c r="C32" s="113" t="s">
         <v>185</v>
       </c>
-      <c r="D32" s="122">
+      <c r="D32" s="114">
         <v>106.13</v>
       </c>
-      <c r="E32" s="122">
+      <c r="E32" s="114">
         <v>1.79</v>
       </c>
-      <c r="F32" s="122">
+      <c r="F32" s="114">
         <v>106.13</v>
       </c>
-      <c r="G32" s="123">
+      <c r="G32" s="115">
         <v>100</v>
       </c>
-      <c r="I32" s="120" t="str">
+      <c r="I32" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25473 | Mosquera | 106.13 | 1.79 | 106.13 | 100 |</v>
       </c>
@@ -47470,22 +47507,22 @@
       <c r="B33" s="31">
         <v>25486</v>
       </c>
-      <c r="C33" s="121" t="s">
+      <c r="C33" s="113" t="s">
         <v>186</v>
       </c>
-      <c r="D33" s="122">
+      <c r="D33" s="114">
         <v>98.36</v>
       </c>
-      <c r="E33" s="122">
+      <c r="E33" s="114">
         <v>1.66</v>
       </c>
-      <c r="F33" s="122">
+      <c r="F33" s="114">
         <v>98.36</v>
       </c>
-      <c r="G33" s="123">
+      <c r="G33" s="115">
         <v>100</v>
       </c>
-      <c r="I33" s="120" t="str">
+      <c r="I33" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25486 | Nemocón | 98.36 | 1.66 | 98.36 | 100 |</v>
       </c>
@@ -47494,22 +47531,22 @@
       <c r="B34" s="31">
         <v>25596</v>
       </c>
-      <c r="C34" s="121" t="s">
+      <c r="C34" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="D34" s="122">
+      <c r="D34" s="114">
         <v>30.98</v>
       </c>
-      <c r="E34" s="122">
+      <c r="E34" s="114">
         <v>0.52</v>
       </c>
-      <c r="F34" s="122">
+      <c r="F34" s="114">
         <v>127.7</v>
       </c>
-      <c r="G34" s="123">
+      <c r="G34" s="115">
         <v>24.26</v>
       </c>
-      <c r="I34" s="120" t="str">
+      <c r="I34" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25596 | Quipile | 30.98 | 0.52 | 127.7 | 24.26 |</v>
       </c>
@@ -47518,22 +47555,22 @@
       <c r="B35" s="31">
         <v>25612</v>
       </c>
-      <c r="C35" s="121" t="s">
+      <c r="C35" s="113" t="s">
         <v>188</v>
       </c>
-      <c r="D35" s="122">
+      <c r="D35" s="114">
         <v>92.81</v>
       </c>
-      <c r="E35" s="122">
+      <c r="E35" s="114">
         <v>1.56</v>
       </c>
-      <c r="F35" s="122">
+      <c r="F35" s="114">
         <v>128.01</v>
       </c>
-      <c r="G35" s="123">
+      <c r="G35" s="115">
         <v>72.5</v>
       </c>
-      <c r="I35" s="120" t="str">
+      <c r="I35" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25612 | Ricaurte | 92.81 | 1.56 | 128.01 | 72.5 |</v>
       </c>
@@ -47542,22 +47579,22 @@
       <c r="B36" s="31">
         <v>25645</v>
       </c>
-      <c r="C36" s="121" t="s">
+      <c r="C36" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="D36" s="122">
+      <c r="D36" s="114">
         <v>88.14</v>
       </c>
-      <c r="E36" s="122">
+      <c r="E36" s="114">
         <v>1.49</v>
       </c>
-      <c r="F36" s="122">
+      <c r="F36" s="114">
         <v>88.57</v>
       </c>
-      <c r="G36" s="123">
+      <c r="G36" s="115">
         <v>99.52</v>
       </c>
-      <c r="I36" s="120" t="str">
+      <c r="I36" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25645 | San Antonio del Tequendama | 88.14 | 1.49 | 88.57 | 99.52 |</v>
       </c>
@@ -47566,22 +47603,22 @@
       <c r="B37" s="31">
         <v>25736</v>
       </c>
-      <c r="C37" s="121" t="s">
+      <c r="C37" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="D37" s="122">
+      <c r="D37" s="114">
         <v>140.97</v>
       </c>
-      <c r="E37" s="122">
+      <c r="E37" s="114">
         <v>2.38</v>
       </c>
-      <c r="F37" s="122">
+      <c r="F37" s="114">
         <v>141.19</v>
       </c>
-      <c r="G37" s="123">
+      <c r="G37" s="115">
         <v>99.85</v>
       </c>
-      <c r="I37" s="120" t="str">
+      <c r="I37" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25736 | Sesquilé | 140.97 | 2.38 | 141.19 | 99.85 |</v>
       </c>
@@ -47590,22 +47627,22 @@
       <c r="B38" s="31">
         <v>25740</v>
       </c>
-      <c r="C38" s="121" t="s">
+      <c r="C38" s="113" t="s">
         <v>191</v>
       </c>
-      <c r="D38" s="122">
+      <c r="D38" s="114">
         <v>93.76</v>
       </c>
-      <c r="E38" s="122">
+      <c r="E38" s="114">
         <v>1.58</v>
       </c>
-      <c r="F38" s="122">
+      <c r="F38" s="114">
         <v>122.04</v>
       </c>
-      <c r="G38" s="123">
+      <c r="G38" s="115">
         <v>76.83</v>
       </c>
-      <c r="I38" s="120" t="str">
+      <c r="I38" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25740 | Sibaté | 93.76 | 1.58 | 122.04 | 76.83 |</v>
       </c>
@@ -47614,22 +47651,22 @@
       <c r="B39" s="31">
         <v>25754</v>
       </c>
-      <c r="C39" s="121" t="s">
+      <c r="C39" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="D39" s="122">
+      <c r="D39" s="114">
         <v>176.15</v>
       </c>
-      <c r="E39" s="122">
+      <c r="E39" s="114">
         <v>2.97</v>
       </c>
-      <c r="F39" s="122">
+      <c r="F39" s="114">
         <v>187.45</v>
       </c>
-      <c r="G39" s="123">
+      <c r="G39" s="115">
         <v>93.97</v>
       </c>
-      <c r="I39" s="120" t="str">
+      <c r="I39" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25754 | Soacha | 176.15 | 2.97 | 187.45 | 93.97 |</v>
       </c>
@@ -47638,22 +47675,22 @@
       <c r="B40" s="31">
         <v>25758</v>
       </c>
-      <c r="C40" s="121" t="s">
+      <c r="C40" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="D40" s="122">
+      <c r="D40" s="114">
         <v>111.04</v>
       </c>
-      <c r="E40" s="122">
+      <c r="E40" s="114">
         <v>1.87</v>
       </c>
-      <c r="F40" s="122">
+      <c r="F40" s="114">
         <v>111.04</v>
       </c>
-      <c r="G40" s="123">
+      <c r="G40" s="115">
         <v>100</v>
       </c>
-      <c r="I40" s="120" t="str">
+      <c r="I40" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25758 | Sopó | 111.04 | 1.87 | 111.04 | 100 |</v>
       </c>
@@ -47662,22 +47699,22 @@
       <c r="B41" s="31">
         <v>25769</v>
       </c>
-      <c r="C41" s="121" t="s">
+      <c r="C41" s="113" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="122">
+      <c r="D41" s="114">
         <v>188.52</v>
       </c>
-      <c r="E41" s="122">
+      <c r="E41" s="114">
         <v>3.18</v>
       </c>
-      <c r="F41" s="122">
+      <c r="F41" s="114">
         <v>209.22</v>
       </c>
-      <c r="G41" s="123">
+      <c r="G41" s="115">
         <v>90.11</v>
       </c>
-      <c r="I41" s="120" t="str">
+      <c r="I41" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25769 | Subachoque | 188.52 | 3.18 | 209.22 | 90.11 |</v>
       </c>
@@ -47686,22 +47723,22 @@
       <c r="B42" s="31">
         <v>25772</v>
       </c>
-      <c r="C42" s="121" t="s">
+      <c r="C42" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="D42" s="122">
+      <c r="D42" s="114">
         <v>137.04</v>
       </c>
-      <c r="E42" s="122">
+      <c r="E42" s="114">
         <v>2.31</v>
       </c>
-      <c r="F42" s="122">
+      <c r="F42" s="114">
         <v>173.26</v>
       </c>
-      <c r="G42" s="123">
+      <c r="G42" s="115">
         <v>79.09</v>
       </c>
-      <c r="I42" s="120" t="str">
+      <c r="I42" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25772 | Suesca | 137.04 | 2.31 | 173.26 | 79.09 |</v>
       </c>
@@ -47710,22 +47747,22 @@
       <c r="B43" s="31">
         <v>25785</v>
       </c>
-      <c r="C43" s="121" t="s">
+      <c r="C43" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="D43" s="122">
+      <c r="D43" s="114">
         <v>75.22</v>
       </c>
-      <c r="E43" s="122">
+      <c r="E43" s="114">
         <v>1.27</v>
       </c>
-      <c r="F43" s="122">
+      <c r="F43" s="114">
         <v>75.22</v>
       </c>
-      <c r="G43" s="123">
+      <c r="G43" s="115">
         <v>100</v>
       </c>
-      <c r="I43" s="120" t="str">
+      <c r="I43" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25785 | Tabio | 75.22 | 1.27 | 75.22 | 100 |</v>
       </c>
@@ -47734,22 +47771,22 @@
       <c r="B44" s="31">
         <v>25793</v>
       </c>
-      <c r="C44" s="121" t="s">
+      <c r="C44" s="113" t="s">
         <v>197</v>
       </c>
-      <c r="D44" s="122">
+      <c r="D44" s="114">
         <v>138.74</v>
       </c>
-      <c r="E44" s="122">
+      <c r="E44" s="114">
         <v>2.34</v>
       </c>
-      <c r="F44" s="122">
+      <c r="F44" s="114">
         <v>201.87</v>
       </c>
-      <c r="G44" s="123">
+      <c r="G44" s="115">
         <v>68.73</v>
       </c>
-      <c r="I44" s="120" t="str">
+      <c r="I44" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25793 | Tausa | 138.74 | 2.34 | 201.87 | 68.73 |</v>
       </c>
@@ -47758,22 +47795,22 @@
       <c r="B45" s="31">
         <v>25797</v>
       </c>
-      <c r="C45" s="121" t="s">
+      <c r="C45" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="D45" s="122">
+      <c r="D45" s="114">
         <v>51.44</v>
       </c>
-      <c r="E45" s="122">
+      <c r="E45" s="114">
         <v>0.87</v>
       </c>
-      <c r="F45" s="122">
+      <c r="F45" s="114">
         <v>51.44</v>
       </c>
-      <c r="G45" s="123">
+      <c r="G45" s="115">
         <v>100</v>
       </c>
-      <c r="I45" s="120" t="str">
+      <c r="I45" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25797 | Tena | 51.44 | 0.87 | 51.44 | 100 |</v>
       </c>
@@ -47782,22 +47819,22 @@
       <c r="B46" s="31">
         <v>25799</v>
       </c>
-      <c r="C46" s="121" t="s">
+      <c r="C46" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="D46" s="122">
+      <c r="D46" s="114">
         <v>114.15</v>
       </c>
-      <c r="E46" s="122">
+      <c r="E46" s="114">
         <v>1.92</v>
       </c>
-      <c r="F46" s="122">
+      <c r="F46" s="114">
         <v>114.15</v>
       </c>
-      <c r="G46" s="123">
+      <c r="G46" s="115">
         <v>100</v>
       </c>
-      <c r="I46" s="120" t="str">
+      <c r="I46" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25799 | Tenjo | 114.15 | 1.92 | 114.15 | 100 |</v>
       </c>
@@ -47806,22 +47843,22 @@
       <c r="B47" s="31">
         <v>25815</v>
       </c>
-      <c r="C47" s="121" t="s">
+      <c r="C47" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="D47" s="122">
+      <c r="D47" s="114">
         <v>243.54</v>
       </c>
-      <c r="E47" s="122">
+      <c r="E47" s="114">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F47" s="122">
+      <c r="F47" s="114">
         <v>245.77</v>
       </c>
-      <c r="G47" s="123">
+      <c r="G47" s="115">
         <v>99.09</v>
       </c>
-      <c r="I47" s="120" t="str">
+      <c r="I47" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25815 | Tocaima | 243.54 | 4.1 | 245.77 | 99.09 |</v>
       </c>
@@ -47830,22 +47867,22 @@
       <c r="B48" s="31">
         <v>25817</v>
       </c>
-      <c r="C48" s="121" t="s">
+      <c r="C48" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="D48" s="122">
+      <c r="D48" s="114">
         <v>73.25</v>
       </c>
-      <c r="E48" s="122">
+      <c r="E48" s="114">
         <v>1.23</v>
       </c>
-      <c r="F48" s="122">
+      <c r="F48" s="114">
         <v>73.25</v>
       </c>
-      <c r="G48" s="123">
+      <c r="G48" s="115">
         <v>100</v>
       </c>
-      <c r="I48" s="120" t="str">
+      <c r="I48" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25817 | Tocancipá | 73.25 | 1.23 | 73.25 | 100 |</v>
       </c>
@@ -47854,22 +47891,22 @@
       <c r="B49" s="31">
         <v>25873</v>
       </c>
-      <c r="C49" s="121" t="s">
+      <c r="C49" s="113" t="s">
         <v>202</v>
       </c>
-      <c r="D49" s="122">
+      <c r="D49" s="114">
         <v>128.6</v>
       </c>
-      <c r="E49" s="122">
+      <c r="E49" s="114">
         <v>2.17</v>
       </c>
-      <c r="F49" s="122">
+      <c r="F49" s="114">
         <v>226.14</v>
       </c>
-      <c r="G49" s="123">
+      <c r="G49" s="115">
         <v>56.87</v>
       </c>
-      <c r="I49" s="120" t="str">
+      <c r="I49" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25873 | Villapinzón | 128.6 | 2.17 | 226.14 | 56.87 |</v>
       </c>
@@ -47878,22 +47915,22 @@
       <c r="B50" s="31">
         <v>25878</v>
       </c>
-      <c r="C50" s="121" t="s">
+      <c r="C50" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="D50" s="122">
+      <c r="D50" s="114">
         <v>200.85</v>
       </c>
-      <c r="E50" s="122">
+      <c r="E50" s="114">
         <v>3.39</v>
       </c>
-      <c r="F50" s="122">
+      <c r="F50" s="114">
         <v>201.29</v>
       </c>
-      <c r="G50" s="123">
+      <c r="G50" s="115">
         <v>99.78</v>
       </c>
-      <c r="I50" s="120" t="str">
+      <c r="I50" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25878 | Viotá | 200.85 | 3.39 | 201.29 | 99.78 |</v>
       </c>
@@ -47902,22 +47939,22 @@
       <c r="B51" s="31">
         <v>25898</v>
       </c>
-      <c r="C51" s="121" t="s">
+      <c r="C51" s="113" t="s">
         <v>204</v>
       </c>
-      <c r="D51" s="122">
+      <c r="D51" s="114">
         <v>54.2</v>
       </c>
-      <c r="E51" s="122">
+      <c r="E51" s="114">
         <v>0.91</v>
       </c>
-      <c r="F51" s="122">
+      <c r="F51" s="114">
         <v>54.2</v>
       </c>
-      <c r="G51" s="123">
+      <c r="G51" s="115">
         <v>100</v>
       </c>
-      <c r="I51" s="120" t="str">
+      <c r="I51" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25898 | Zipacón | 54.2 | 0.91 | 54.2 | 100 |</v>
       </c>
@@ -47926,44 +47963,44 @@
       <c r="B52" s="31">
         <v>25899</v>
       </c>
-      <c r="C52" s="121" t="s">
+      <c r="C52" s="113" t="s">
         <v>205</v>
       </c>
-      <c r="D52" s="122">
+      <c r="D52" s="114">
         <v>182.49</v>
       </c>
-      <c r="E52" s="122">
+      <c r="E52" s="114">
         <v>3.08</v>
       </c>
-      <c r="F52" s="122">
+      <c r="F52" s="114">
         <v>194.83</v>
       </c>
-      <c r="G52" s="123">
+      <c r="G52" s="115">
         <v>93.66</v>
       </c>
-      <c r="I52" s="120" t="str">
+      <c r="I52" s="112" t="str">
         <f t="shared" si="0"/>
         <v>| 25899 | Zipaquirá | 182.49 | 3.08 | 194.83 | 93.66 |</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B53" s="32"/>
-      <c r="C53" s="124" t="s">
+      <c r="C53" s="116" t="s">
         <v>212</v>
       </c>
-      <c r="D53" s="125">
+      <c r="D53" s="117">
         <f>SUM(D5:D52)</f>
         <v>5932.7900000000009</v>
       </c>
-      <c r="E53" s="125">
+      <c r="E53" s="117">
         <v>100</v>
       </c>
-      <c r="F53" s="125">
+      <c r="F53" s="117">
         <f>SUM(F5:F52)</f>
         <v>7926.6100000000006</v>
       </c>
-      <c r="G53" s="126"/>
-      <c r="I53" s="120" t="str">
+      <c r="G53" s="118"/>
+      <c r="I53" s="112" t="str">
         <f t="shared" si="0"/>
         <v>|  | Σ | 5932.79 | 100 | 7926.61 |  |</v>
       </c>
@@ -47971,4 +48008,206 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDB0B50-F377-4A88-A477-ADAD1AFF4021}">
+  <dimension ref="B2:I18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.59765625" style="112" customWidth="1"/>
+    <col min="2" max="2" width="17.73046875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.19921875" style="112" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.46484375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.06640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.59765625" style="112" customWidth="1"/>
+    <col min="9" max="9" width="73.265625" style="112" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="112"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B2" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="33" x14ac:dyDescent="0.45">
+      <c r="B3" s="121" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="109" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="110" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="110" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="110" t="s">
+        <v>217</v>
+      </c>
+      <c r="G3" s="111" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="112" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",G3," |")</f>
+        <v>| Autoridad ambiental | Nombre | Área en cuenca (km²) | % Cuenca | Área AA. (km²) | % AA. |</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B4" s="122" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="120" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="112" t="str">
+        <f t="shared" ref="I4:I9" si="0">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ",F4," | ",G4," |")</f>
+        <v>| --- | --- | --- | --- | --- | --- |</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="113" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="114">
+        <v>7.29</v>
+      </c>
+      <c r="E5" s="114">
+        <v>0.12</v>
+      </c>
+      <c r="F5" s="114">
+        <v>7.29</v>
+      </c>
+      <c r="G5" s="115">
+        <v>100</v>
+      </c>
+      <c r="I5" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>| (n/a) | (área no coincidente) | 7.29 | 0.12 | 7.29 | 100 |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="114">
+        <v>5331.94</v>
+      </c>
+      <c r="E6" s="114">
+        <v>89.87</v>
+      </c>
+      <c r="F6" s="114">
+        <v>18289</v>
+      </c>
+      <c r="G6" s="115">
+        <v>29.15</v>
+      </c>
+      <c r="I6" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>| CAR | CORPORACION AUTONOMA REGIONAL DE CUNDINAMARCA | 5331.94 | 89.87 | 18289 | 29.15 |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="113" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="114">
+        <v>209.56</v>
+      </c>
+      <c r="E7" s="114">
+        <v>3.53</v>
+      </c>
+      <c r="F7" s="114">
+        <v>3635.01</v>
+      </c>
+      <c r="G7" s="115">
+        <v>5.77</v>
+      </c>
+      <c r="I7" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>| CORPOGUAVIO | CORPORACION AUTONOMA REGIONAL DEL GUAVIO | 209.56 | 3.53 | 3635.01 | 5.77 |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="114">
+        <v>383.99</v>
+      </c>
+      <c r="E8" s="114">
+        <v>6.47</v>
+      </c>
+      <c r="F8" s="114">
+        <v>383.99</v>
+      </c>
+      <c r="G8" s="115">
+        <v>100</v>
+      </c>
+      <c r="I8" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>| SDA | SECRETARIA DISTRITAL DE AMBIENTE BOGOTÁ | 383.99 | 6.47 | 383.99 | 100 |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="32"/>
+      <c r="C9" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="117">
+        <v>5932.79</v>
+      </c>
+      <c r="E9" s="117">
+        <v>100</v>
+      </c>
+      <c r="F9" s="117">
+        <v>22315.3</v>
+      </c>
+      <c r="G9" s="118">
+        <v>0</v>
+      </c>
+      <c r="I9" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>|  | Σ | 5932.79 | 100 | 22315.3 | 0 |</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F18" s="112"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.HydroBogota\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E40A218-D99A-4E8B-B829-70C5415C4524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40373A85-925B-414C-A736-68464431E1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="724" firstSheet="2" activeTab="7" xr2:uid="{3E1898FA-83B9-434A-8B97-00E46467114B}"/>
   </bookViews>
@@ -829,19 +829,19 @@
     <t>(área no coincidente)</t>
   </si>
   <si>
-    <t>CORPORACION AUTONOMA REGIONAL DE CUNDINAMARCA</t>
-  </si>
-  <si>
     <t>CORPOGUAVIO</t>
-  </si>
-  <si>
-    <t>CORPORACION AUTONOMA REGIONAL DEL GUAVIO</t>
   </si>
   <si>
     <t>SDA</t>
   </si>
   <si>
-    <t>SECRETARIA DISTRITAL DE AMBIENTE BOGOTÁ</t>
+    <t>Corporación Autónoma Regional de Cundinamarca</t>
+  </si>
+  <si>
+    <t>Corporación Autónoma Regional del Guavio</t>
+  </si>
+  <si>
+    <t>Secretaria Distrital de Ambiente Bogotá</t>
   </si>
 </sst>
 </file>
@@ -48015,14 +48015,14 @@
   <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.59765625" style="112" customWidth="1"/>
     <col min="2" max="2" width="17.73046875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="25.19921875" style="112" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.59765625" style="112" customWidth="1"/>
     <col min="4" max="4" width="12.46484375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="7" bestFit="1" customWidth="1"/>
@@ -48114,7 +48114,7 @@
         <v>215</v>
       </c>
       <c r="C6" s="113" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D6" s="114">
         <v>5331.94</v>
@@ -48130,15 +48130,15 @@
       </c>
       <c r="I6" s="112" t="str">
         <f t="shared" si="0"/>
-        <v>| CAR | CORPORACION AUTONOMA REGIONAL DE CUNDINAMARCA | 5331.94 | 89.87 | 18289 | 29.15 |</v>
+        <v>| CAR | Corporación Autónoma Regional de Cundinamarca | 5331.94 | 89.87 | 18289 | 29.15 |</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" s="113" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D7" s="114">
         <v>209.56</v>
@@ -48154,12 +48154,12 @@
       </c>
       <c r="I7" s="112" t="str">
         <f t="shared" si="0"/>
-        <v>| CORPOGUAVIO | CORPORACION AUTONOMA REGIONAL DEL GUAVIO | 209.56 | 3.53 | 3635.01 | 5.77 |</v>
+        <v>| CORPOGUAVIO | Corporación Autónoma Regional del Guavio | 209.56 | 3.53 | 3635.01 | 5.77 |</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C8" s="113" t="s">
         <v>225</v>
@@ -48178,7 +48178,7 @@
       </c>
       <c r="I8" s="112" t="str">
         <f t="shared" si="0"/>
-        <v>| SDA | SECRETARIA DISTRITAL DE AMBIENTE BOGOTÁ | 383.99 | 6.47 | 383.99 | 100 |</v>
+        <v>| SDA | Secretaria Distrital de Ambiente Bogotá | 383.99 | 6.47 | 383.99 | 100 |</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.45">

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.HydroBogota\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40373A85-925B-414C-A736-68464431E1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B196265-2E5A-4D40-9E06-AF74B238B492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="724" firstSheet="2" activeTab="7" xr2:uid="{3E1898FA-83B9-434A-8B97-00E46467114B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="724" firstSheet="2" activeTab="6" xr2:uid="{3E1898FA-83B9-434A-8B97-00E46467114B}"/>
   </bookViews>
   <sheets>
     <sheet name="FlowRain" sheetId="1" r:id="rId1"/>
@@ -796,9 +796,6 @@
     <t>Área Mpio. (km²)</t>
   </si>
   <si>
-    <t>% Cuenca</t>
-  </si>
-  <si>
     <t>% Mpio.</t>
   </si>
   <si>
@@ -842,6 +839,9 @@
   </si>
   <si>
     <t>Secretaria Distrital de Ambiente Bogotá</t>
+  </si>
+  <si>
+    <t>% en cuenca</t>
   </si>
 </sst>
 </file>
@@ -46760,8 +46760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4DED94-F167-49EE-B01F-647CBC1CD593}">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -46780,7 +46780,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="33" x14ac:dyDescent="0.45">
@@ -46794,17 +46794,17 @@
         <v>208</v>
       </c>
       <c r="E3" s="110" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F3" s="110" t="s">
         <v>209</v>
       </c>
       <c r="G3" s="111" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I3" s="112" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",G3," |")</f>
-        <v>| Código | Nombre | Área en cuenca (km²) | % Cuenca | Área Mpio. (km²) | % Mpio. |</v>
+        <v>| Código | Nombre | Área en cuenca (km²) | % en cuenca | Área Mpio. (km²) | % Mpio. |</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
@@ -47986,7 +47986,7 @@
     <row r="53" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B53" s="32"/>
       <c r="C53" s="116" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D53" s="117">
         <f>SUM(D5:D52)</f>
@@ -48014,8 +48014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDB0B50-F377-4A88-A477-ADAD1AFF4021}">
   <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -48034,12 +48034,12 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="33" x14ac:dyDescent="0.45">
       <c r="B3" s="121" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="109" t="s">
         <v>207</v>
@@ -48048,17 +48048,17 @@
         <v>208</v>
       </c>
       <c r="E3" s="110" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F3" s="110" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" s="111" t="s">
         <v>217</v>
-      </c>
-      <c r="G3" s="111" t="s">
-        <v>218</v>
       </c>
       <c r="I3" s="112" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",G3," |")</f>
-        <v>| Autoridad ambiental | Nombre | Área en cuenca (km²) | % Cuenca | Área AA. (km²) | % AA. |</v>
+        <v>| Autoridad ambiental | Nombre | Área en cuenca (km²) | % en cuenca | Área AA. (km²) | % AA. |</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
@@ -48087,10 +48087,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="113" t="s">
         <v>219</v>
-      </c>
-      <c r="C5" s="113" t="s">
-        <v>220</v>
       </c>
       <c r="D5" s="114">
         <v>7.29</v>
@@ -48111,10 +48111,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="113" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" s="114">
         <v>5331.94</v>
@@ -48135,10 +48135,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" s="113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D7" s="114">
         <v>209.56</v>
@@ -48159,10 +48159,10 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C8" s="113" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D8" s="114">
         <v>383.99</v>
@@ -48184,7 +48184,7 @@
     <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="32"/>
       <c r="C9" s="116" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D9" s="117">
         <v>5932.79</v>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.HydroBogota\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057F2749-2ACC-4E68-B0A3-21A8A0463A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F0AB30-9EF0-4C58-8E69-E3DA2B6ECD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="724" xr2:uid="{3E1898FA-83B9-434A-8B97-00E46467114B}"/>
   </bookViews>
@@ -1838,7 +1838,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1848,7 +1848,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-CO"/>
+              <a:rPr lang="es-CO" sz="1200"/>
               <a:t>NRCS Unit Hydrograph Shape Factors - Michigan</a:t>
             </a:r>
           </a:p>
@@ -1875,7 +1875,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1919,7 +1919,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="14605" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2387,7 +2387,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -2397,7 +2397,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-CO"/>
+              <a:rPr lang="es-CO" sz="1200"/>
               <a:t>DAM sudden peak discharge</a:t>
             </a:r>
           </a:p>
@@ -2424,7 +2424,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2468,7 +2468,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="14605" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2577,7 +2577,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="14605" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2686,7 +2686,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="14605" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2795,7 +2795,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="14605" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2904,7 +2904,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="14605" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3004,7 +3004,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="14605" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6798,15 +6798,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>137255</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>189317</xdr:rowOff>
+      <xdr:colOff>215011</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>212643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>6618628</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>88174</xdr:rowOff>
+      <xdr:colOff>6696384</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>111500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6835,16 +6835,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>605814</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>175117</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>84855</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>81812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>6437405</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>73974</xdr:rowOff>
+      <xdr:colOff>6561813</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>198383</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7417,9 +7417,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1313E719-9DB2-4CD7-9082-8925C7754BE9}">
   <dimension ref="B2:J978"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
